--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3094646.66547767</v>
+        <v>-3096532.274748964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4603496.861839563</v>
+        <v>4603496.861839566</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>322.9080803277993</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>305.4471304353262</v>
       </c>
       <c r="D11" t="n">
-        <v>294.8572802850017</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>322.1046087365804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>352.7545617465138</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>251.7681139687395</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>30.34680758713964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.15728935994478</v>
+        <v>87.15728935994466</v>
       </c>
       <c r="T11" t="n">
-        <v>151.3527190482554</v>
+        <v>151.3527190482553</v>
       </c>
       <c r="U11" t="n">
-        <v>191.30209841752</v>
+        <v>191.3020984175199</v>
       </c>
       <c r="V11" t="n">
-        <v>265.2104608769723</v>
+        <v>267.9264971344535</v>
       </c>
       <c r="W11" t="n">
-        <v>289.4152073817318</v>
+        <v>289.4152073817316</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>309.9053393427877</v>
       </c>
       <c r="Y11" t="n">
-        <v>326.4121773203723</v>
+        <v>326.4121773203722</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H12" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I12" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S12" t="n">
         <v>144.627090920151</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.006218846256</v>
+        <v>120.0062188462559</v>
       </c>
       <c r="C13" t="n">
-        <v>107.4210597629466</v>
+        <v>107.4210597629465</v>
       </c>
       <c r="D13" t="n">
-        <v>88.78971168253108</v>
+        <v>88.78971168253098</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>85.59528668724997</v>
+        <v>85.59528668724987</v>
       </c>
       <c r="G13" t="n">
-        <v>106.9440366306247</v>
+        <v>106.9440366306246</v>
       </c>
       <c r="H13" t="n">
-        <v>91.54399843061812</v>
+        <v>91.54399843061802</v>
       </c>
       <c r="I13" t="n">
-        <v>58.90045863483704</v>
+        <v>58.90045863483692</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.55887399069108</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9089755307739</v>
+        <v>142.9089755307738</v>
       </c>
       <c r="T13" t="n">
-        <v>162.902053053402</v>
+        <v>162.9020530534016</v>
       </c>
       <c r="U13" t="n">
-        <v>226.4266581266922</v>
+        <v>9.458929274270238</v>
       </c>
       <c r="V13" t="n">
-        <v>192.3118819881467</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>226.6972370009096</v>
       </c>
       <c r="X13" t="n">
-        <v>45.8603942043858</v>
+        <v>165.8838940533558</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.7588920164135</v>
+        <v>158.7588920164134</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>322.9080803277992</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>305.4471304353262</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>322.1046087365804</v>
       </c>
       <c r="F14" t="n">
-        <v>347.0502844060302</v>
+        <v>347.0502844060301</v>
       </c>
       <c r="G14" t="n">
-        <v>265.154016544209</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>251.7681139687395</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>45.69424580880693</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.15728935994477</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>151.3527190482554</v>
+        <v>41.96866364776952</v>
       </c>
       <c r="U14" t="n">
-        <v>191.30209841752</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.9264971344536</v>
+        <v>267.9264971344535</v>
       </c>
       <c r="W14" t="n">
-        <v>289.4152073817318</v>
+        <v>289.4152073817316</v>
       </c>
       <c r="X14" t="n">
-        <v>309.9053393427878</v>
+        <v>309.9053393427877</v>
       </c>
       <c r="Y14" t="n">
-        <v>326.4121773203723</v>
+        <v>326.4121773203722</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H15" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I15" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S15" t="n">
         <v>144.627090920151</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>120.0062188462559</v>
       </c>
       <c r="C16" t="n">
-        <v>107.4210597629466</v>
+        <v>107.4210597629465</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>88.78971168253098</v>
       </c>
       <c r="E16" t="n">
-        <v>86.60820131088789</v>
+        <v>86.60820131088779</v>
       </c>
       <c r="F16" t="n">
-        <v>85.59528668724997</v>
+        <v>85.59528668724987</v>
       </c>
       <c r="G16" t="n">
-        <v>106.9440366306247</v>
+        <v>98.6010636023392</v>
       </c>
       <c r="H16" t="n">
-        <v>91.54399843061813</v>
+        <v>91.54399843061802</v>
       </c>
       <c r="I16" t="n">
-        <v>58.90045863483701</v>
+        <v>58.90045863483693</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.55887399069141</v>
+        <v>62.55887399069108</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9089755307737</v>
+        <v>142.9089755307738</v>
       </c>
       <c r="T16" t="n">
-        <v>162.902053053402</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>226.4266581266921</v>
       </c>
       <c r="V16" t="n">
-        <v>192.3118819881467</v>
+        <v>192.3118819881466</v>
       </c>
       <c r="W16" t="n">
-        <v>226.6972370009097</v>
+        <v>226.6972370009096</v>
       </c>
       <c r="X16" t="n">
-        <v>105.2186705573763</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.7588920164135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.2823537161433</v>
+        <v>242.2823537161431</v>
       </c>
       <c r="C17" t="n">
-        <v>224.8214038236702</v>
+        <v>224.8214038236701</v>
       </c>
       <c r="D17" t="n">
-        <v>214.2315536733456</v>
+        <v>214.2315536733455</v>
       </c>
       <c r="E17" t="n">
-        <v>241.4788821249245</v>
+        <v>241.4788821249244</v>
       </c>
       <c r="F17" t="n">
-        <v>266.4245577943741</v>
+        <v>266.424557794374</v>
       </c>
       <c r="G17" t="n">
-        <v>272.1288351348575</v>
+        <v>272.1288351348576</v>
       </c>
       <c r="H17" t="n">
-        <v>171.1423873570835</v>
+        <v>171.1423873570834</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.531562748288749</v>
+        <v>6.531562748288621</v>
       </c>
       <c r="T17" t="n">
-        <v>70.72699243659939</v>
+        <v>70.72699243659928</v>
       </c>
       <c r="U17" t="n">
-        <v>110.676371805864</v>
+        <v>110.6763718058639</v>
       </c>
       <c r="V17" t="n">
-        <v>187.3007705227976</v>
+        <v>187.3007705227975</v>
       </c>
       <c r="W17" t="n">
-        <v>208.7894807700757</v>
+        <v>208.7894807700756</v>
       </c>
       <c r="X17" t="n">
-        <v>229.2796127311317</v>
+        <v>229.2796127311316</v>
       </c>
       <c r="Y17" t="n">
-        <v>245.7864507087163</v>
+        <v>245.7864507087162</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H18" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I18" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S18" t="n">
         <v>144.627090920151</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>39.38049223459987</v>
       </c>
       <c r="C19" t="n">
-        <v>38.02414555627097</v>
+        <v>26.79533315129041</v>
       </c>
       <c r="D19" t="n">
-        <v>8.163985070875043</v>
+        <v>8.163985070874929</v>
       </c>
       <c r="E19" t="n">
-        <v>5.982474699231858</v>
+        <v>5.982474699231744</v>
       </c>
       <c r="F19" t="n">
-        <v>4.969560075593932</v>
+        <v>4.969560075593819</v>
       </c>
       <c r="G19" t="n">
-        <v>26.31831001896867</v>
+        <v>26.31831001896855</v>
       </c>
       <c r="H19" t="n">
-        <v>10.91827181896209</v>
+        <v>10.91827181896197</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>7.021655691471238</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>202.7347368664552</v>
       </c>
       <c r="T19" t="n">
-        <v>82.27632644174594</v>
+        <v>222.7278143890832</v>
       </c>
       <c r="U19" t="n">
-        <v>145.8009315150362</v>
+        <v>150.0080882285469</v>
       </c>
       <c r="V19" t="n">
-        <v>111.6861553764907</v>
+        <v>111.6861553764906</v>
       </c>
       <c r="W19" t="n">
-        <v>146.0715103892537</v>
+        <v>146.0715103892536</v>
       </c>
       <c r="X19" t="n">
-        <v>85.25816744169984</v>
+        <v>85.25816744169973</v>
       </c>
       <c r="Y19" t="n">
-        <v>78.13316540475748</v>
+        <v>78.13316540475736</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.2823537161433</v>
+        <v>242.2823537161431</v>
       </c>
       <c r="C20" t="n">
-        <v>224.8214038236702</v>
+        <v>224.8214038236701</v>
       </c>
       <c r="D20" t="n">
-        <v>214.2315536733456</v>
+        <v>214.2315536733455</v>
       </c>
       <c r="E20" t="n">
-        <v>241.4788821249245</v>
+        <v>241.4788821249244</v>
       </c>
       <c r="F20" t="n">
-        <v>266.4245577943741</v>
+        <v>266.424557794374</v>
       </c>
       <c r="G20" t="n">
-        <v>272.1288351348578</v>
+        <v>272.1288351348576</v>
       </c>
       <c r="H20" t="n">
-        <v>171.1423873570835</v>
+        <v>171.1423873570834</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.531562748288749</v>
+        <v>6.531562748288621</v>
       </c>
       <c r="T20" t="n">
-        <v>70.72699243659939</v>
+        <v>70.72699243659874</v>
       </c>
       <c r="U20" t="n">
-        <v>110.676371805864</v>
+        <v>110.6763718058639</v>
       </c>
       <c r="V20" t="n">
-        <v>187.3007705227976</v>
+        <v>187.3007705227975</v>
       </c>
       <c r="W20" t="n">
-        <v>208.7894807700757</v>
+        <v>208.7894807700756</v>
       </c>
       <c r="X20" t="n">
-        <v>229.2796127311317</v>
+        <v>229.2796127311316</v>
       </c>
       <c r="Y20" t="n">
-        <v>245.7864507087163</v>
+        <v>245.7864507087162</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H21" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I21" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S21" t="n">
         <v>144.627090920151</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.38049223459998</v>
+        <v>39.38049223459987</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>26.79533315129041</v>
       </c>
       <c r="D22" t="n">
-        <v>8.163985070875043</v>
+        <v>12.3711417843858</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>4.969560075593932</v>
+        <v>4.969560075593819</v>
       </c>
       <c r="G22" t="n">
-        <v>26.31831001896867</v>
+        <v>166.769797966306</v>
       </c>
       <c r="H22" t="n">
-        <v>10.91827181896209</v>
+        <v>10.91827181896197</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7.021655691471238</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>62.28324891911787</v>
+        <v>62.28324891911775</v>
       </c>
       <c r="T22" t="n">
-        <v>82.27632644174594</v>
+        <v>82.27632644174582</v>
       </c>
       <c r="U22" t="n">
-        <v>157.0297439200166</v>
+        <v>145.800931515036</v>
       </c>
       <c r="V22" t="n">
-        <v>111.6861553764907</v>
+        <v>111.6861553764906</v>
       </c>
       <c r="W22" t="n">
-        <v>146.0715103892537</v>
+        <v>146.0715103892536</v>
       </c>
       <c r="X22" t="n">
-        <v>85.25816744169984</v>
+        <v>85.25816744169973</v>
       </c>
       <c r="Y22" t="n">
-        <v>78.13316540475748</v>
+        <v>78.13316540475736</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.2823537161433</v>
+        <v>242.2823537161431</v>
       </c>
       <c r="C23" t="n">
-        <v>224.8214038236702</v>
+        <v>224.8214038236701</v>
       </c>
       <c r="D23" t="n">
-        <v>214.2315536733456</v>
+        <v>214.2315536733455</v>
       </c>
       <c r="E23" t="n">
-        <v>241.4788821249245</v>
+        <v>241.4788821249244</v>
       </c>
       <c r="F23" t="n">
-        <v>266.4245577943741</v>
+        <v>266.424557794374</v>
       </c>
       <c r="G23" t="n">
-        <v>272.1288351348578</v>
+        <v>272.1288351348576</v>
       </c>
       <c r="H23" t="n">
-        <v>171.1423873570835</v>
+        <v>171.1423873570834</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.531562748288749</v>
+        <v>6.531562748288621</v>
       </c>
       <c r="T23" t="n">
-        <v>70.72699243659939</v>
+        <v>70.72699243659928</v>
       </c>
       <c r="U23" t="n">
-        <v>110.676371805864</v>
+        <v>110.6763718058639</v>
       </c>
       <c r="V23" t="n">
-        <v>187.3007705227976</v>
+        <v>187.3007705227975</v>
       </c>
       <c r="W23" t="n">
-        <v>208.7894807700757</v>
+        <v>208.7894807700756</v>
       </c>
       <c r="X23" t="n">
-        <v>229.2796127311317</v>
+        <v>229.2796127311316</v>
       </c>
       <c r="Y23" t="n">
-        <v>245.7864507087163</v>
+        <v>245.7864507087162</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H24" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I24" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S24" t="n">
         <v>144.627090920151</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.38049223459998</v>
+        <v>39.38049223459987</v>
       </c>
       <c r="C25" t="n">
-        <v>26.79533315129052</v>
+        <v>26.79533315129041</v>
       </c>
       <c r="D25" t="n">
-        <v>8.163985070875043</v>
+        <v>8.163985070874929</v>
       </c>
       <c r="E25" t="n">
-        <v>35.2781397251772</v>
+        <v>5.982474699231744</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>4.969560075593819</v>
       </c>
       <c r="G25" t="n">
-        <v>26.31831001896867</v>
+        <v>26.31831001896855</v>
       </c>
       <c r="H25" t="n">
-        <v>10.91827181896209</v>
+        <v>15.1254285324729</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7.021655691471238</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.3846353263727</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>62.28324891911787</v>
+        <v>62.28324891911775</v>
       </c>
       <c r="T25" t="n">
-        <v>82.27632644174594</v>
+        <v>222.7278143890832</v>
       </c>
       <c r="U25" t="n">
-        <v>145.8009315150362</v>
+        <v>145.800931515036</v>
       </c>
       <c r="V25" t="n">
-        <v>111.6861553764907</v>
+        <v>111.6861553764906</v>
       </c>
       <c r="W25" t="n">
-        <v>146.0715103892537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>85.25816744169984</v>
+        <v>85.25816744169973</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.13316540475748</v>
+        <v>78.13316540475736</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>230.9681486927648</v>
       </c>
       <c r="I26" t="n">
-        <v>24.89428053283216</v>
+        <v>24.89428053283214</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.35732408397001</v>
+        <v>66.35732408396998</v>
       </c>
       <c r="T26" t="n">
         <v>130.5527537722807</v>
       </c>
       <c r="U26" t="n">
-        <v>170.5021331415453</v>
+        <v>170.5021331415452</v>
       </c>
       <c r="V26" t="n">
         <v>247.1265318584789</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.20625357028126</v>
+        <v>99.20625357028125</v>
       </c>
       <c r="C28" t="n">
-        <v>86.6210944869718</v>
+        <v>86.62109448697178</v>
       </c>
       <c r="D28" t="n">
-        <v>67.98974640655632</v>
+        <v>67.98974640655631</v>
       </c>
       <c r="E28" t="n">
-        <v>65.80823603491314</v>
+        <v>65.80823603491312</v>
       </c>
       <c r="F28" t="n">
-        <v>64.79532141127521</v>
+        <v>64.7953214112752</v>
       </c>
       <c r="G28" t="n">
-        <v>86.14407135464994</v>
+        <v>86.14407135464992</v>
       </c>
       <c r="H28" t="n">
-        <v>70.74403315464336</v>
+        <v>70.74403315464335</v>
       </c>
       <c r="I28" t="n">
-        <v>38.10049335886227</v>
+        <v>38.10049335886226</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.75890871471665</v>
+        <v>41.75890871471664</v>
       </c>
       <c r="S28" t="n">
         <v>122.1090102547993</v>
@@ -2810,7 +2810,7 @@
         <v>230.9681486927648</v>
       </c>
       <c r="I29" t="n">
-        <v>24.89428053283216</v>
+        <v>24.89428053283214</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.35732408397</v>
+        <v>66.35732408396998</v>
       </c>
       <c r="T29" t="n">
         <v>130.5527537722807</v>
@@ -2886,10 +2886,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H30" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I30" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S30" t="n">
         <v>144.627090920151</v>
@@ -2962,13 +2962,13 @@
         <v>64.7953214112752</v>
       </c>
       <c r="G31" t="n">
-        <v>86.14407135464994</v>
+        <v>86.14407135464992</v>
       </c>
       <c r="H31" t="n">
-        <v>70.74403315464336</v>
+        <v>70.74403315464335</v>
       </c>
       <c r="I31" t="n">
-        <v>38.10049335886227</v>
+        <v>38.10049335886226</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.75890871471687</v>
+        <v>41.75890871471664</v>
       </c>
       <c r="S31" t="n">
         <v>122.1090102547991</v>
@@ -3004,7 +3004,7 @@
         <v>142.1020877774272</v>
       </c>
       <c r="U31" t="n">
-        <v>205.6266928507172</v>
+        <v>205.6266928507176</v>
       </c>
       <c r="V31" t="n">
         <v>171.511916712172</v>
@@ -3047,7 +3047,7 @@
         <v>230.9681486927648</v>
       </c>
       <c r="I32" t="n">
-        <v>24.89428053283216</v>
+        <v>24.89428053283214</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.35732408397</v>
+        <v>66.35732408396998</v>
       </c>
       <c r="T32" t="n">
         <v>130.5527537722807</v>
@@ -3123,10 +3123,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H33" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I33" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S33" t="n">
         <v>144.627090920151</v>
@@ -3199,13 +3199,13 @@
         <v>64.7953214112752</v>
       </c>
       <c r="G34" t="n">
-        <v>86.14407135464994</v>
+        <v>86.14407135464992</v>
       </c>
       <c r="H34" t="n">
-        <v>70.74403315464336</v>
+        <v>70.74403315464319</v>
       </c>
       <c r="I34" t="n">
-        <v>38.10049335886227</v>
+        <v>38.10049335886226</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75890871471643</v>
+        <v>41.75890871471687</v>
       </c>
       <c r="S34" t="n">
         <v>122.1090102547991</v>
@@ -3241,7 +3241,7 @@
         <v>142.1020877774272</v>
       </c>
       <c r="U34" t="n">
-        <v>205.6266928507176</v>
+        <v>205.6266928507179</v>
       </c>
       <c r="V34" t="n">
         <v>171.511916712172</v>
@@ -3275,13 +3275,13 @@
         <v>301.3046434606057</v>
       </c>
       <c r="F35" t="n">
-        <v>326.2503191300553</v>
+        <v>326.2503191300554</v>
       </c>
       <c r="G35" t="n">
         <v>331.9545964705391</v>
       </c>
       <c r="H35" t="n">
-        <v>230.9681486927647</v>
+        <v>230.9681486927648</v>
       </c>
       <c r="I35" t="n">
         <v>24.89428053283214</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.35732408396998</v>
+        <v>66.35732408397</v>
       </c>
       <c r="T35" t="n">
-        <v>130.5527537722806</v>
+        <v>130.5527537722807</v>
       </c>
       <c r="U35" t="n">
         <v>170.5021331415452</v>
       </c>
       <c r="V35" t="n">
-        <v>247.1265318584788</v>
+        <v>247.1265318584789</v>
       </c>
       <c r="W35" t="n">
-        <v>268.6152421057569</v>
+        <v>268.615242105757</v>
       </c>
       <c r="X35" t="n">
-        <v>289.1053740668129</v>
+        <v>289.105374066813</v>
       </c>
       <c r="Y35" t="n">
         <v>305.6122120443976</v>
@@ -3360,10 +3360,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H36" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I36" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S36" t="n">
         <v>144.627090920151</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.20625357028123</v>
+        <v>99.20625357028125</v>
       </c>
       <c r="C37" t="n">
-        <v>86.62109448697177</v>
+        <v>86.62109448697178</v>
       </c>
       <c r="D37" t="n">
-        <v>67.98974640655629</v>
+        <v>67.98974640655631</v>
       </c>
       <c r="E37" t="n">
-        <v>65.80823603491311</v>
+        <v>65.80823603491312</v>
       </c>
       <c r="F37" t="n">
-        <v>64.79532141127518</v>
+        <v>64.7953214112752</v>
       </c>
       <c r="G37" t="n">
         <v>86.14407135464992</v>
@@ -3442,7 +3442,7 @@
         <v>70.74403315464335</v>
       </c>
       <c r="I37" t="n">
-        <v>38.10049335886244</v>
+        <v>38.10049335886226</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75890871471663</v>
+        <v>41.75890871471664</v>
       </c>
       <c r="S37" t="n">
-        <v>122.109010254799</v>
+        <v>122.1090102547991</v>
       </c>
       <c r="T37" t="n">
         <v>142.1020877774272</v>
       </c>
       <c r="U37" t="n">
-        <v>205.6266928507176</v>
+        <v>205.6266928507174</v>
       </c>
       <c r="V37" t="n">
-        <v>171.5119167121719</v>
+        <v>171.511916712172</v>
       </c>
       <c r="W37" t="n">
-        <v>205.8972717249349</v>
+        <v>205.897271724935</v>
       </c>
       <c r="X37" t="n">
         <v>145.0839287773811</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.9589267404387</v>
+        <v>137.9589267404388</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>230.9681486927648</v>
       </c>
       <c r="I38" t="n">
-        <v>24.89428053283216</v>
+        <v>24.89428053283214</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H39" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I39" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S39" t="n">
         <v>144.627090920151</v>
@@ -3673,10 +3673,10 @@
         <v>64.7953214112752</v>
       </c>
       <c r="G40" t="n">
-        <v>86.14407135464992</v>
+        <v>86.14407135464994</v>
       </c>
       <c r="H40" t="n">
-        <v>70.74403315464335</v>
+        <v>70.74403315464336</v>
       </c>
       <c r="I40" t="n">
         <v>38.10049335886227</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75890871471665</v>
+        <v>41.75890871471664</v>
       </c>
       <c r="S40" t="n">
         <v>122.1090102547991</v>
@@ -3715,7 +3715,7 @@
         <v>142.1020877774272</v>
       </c>
       <c r="U40" t="n">
-        <v>205.6266928507174</v>
+        <v>205.6266928507172</v>
       </c>
       <c r="V40" t="n">
         <v>171.511916712172</v>
@@ -3758,7 +3758,7 @@
         <v>230.9681486927648</v>
       </c>
       <c r="I41" t="n">
-        <v>24.89428053283216</v>
+        <v>24.89428053283214</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H42" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I42" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S42" t="n">
         <v>144.627090920151</v>
@@ -3916,7 +3916,7 @@
         <v>70.74403315464335</v>
       </c>
       <c r="I43" t="n">
-        <v>38.10049335886227</v>
+        <v>38.10049335886226</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75890871471665</v>
+        <v>41.75890871471664</v>
       </c>
       <c r="S43" t="n">
         <v>122.1090102547991</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.35732408397</v>
+        <v>66.35732408397001</v>
       </c>
       <c r="T44" t="n">
         <v>130.5527537722807</v>
       </c>
       <c r="U44" t="n">
-        <v>170.5021331415452</v>
+        <v>170.5021331415453</v>
       </c>
       <c r="V44" t="n">
         <v>247.1265318584789</v>
@@ -4071,10 +4071,10 @@
         <v>135.8868970258126</v>
       </c>
       <c r="H45" t="n">
-        <v>98.16756027794194</v>
+        <v>98.16756027794193</v>
       </c>
       <c r="I45" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819391</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703135</v>
       </c>
       <c r="S45" t="n">
         <v>144.627090920151</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.20625357028125</v>
+        <v>99.20625357028126</v>
       </c>
       <c r="C46" t="n">
-        <v>86.62109448697178</v>
+        <v>86.6210944869718</v>
       </c>
       <c r="D46" t="n">
-        <v>67.98974640655631</v>
+        <v>67.98974640655632</v>
       </c>
       <c r="E46" t="n">
-        <v>65.80823603491312</v>
+        <v>65.80823603491314</v>
       </c>
       <c r="F46" t="n">
-        <v>64.7953214112752</v>
+        <v>64.79532141127521</v>
       </c>
       <c r="G46" t="n">
-        <v>86.14407135464992</v>
+        <v>86.14407135464994</v>
       </c>
       <c r="H46" t="n">
-        <v>70.74403315464335</v>
+        <v>70.74403315464336</v>
       </c>
       <c r="I46" t="n">
         <v>38.10049335886227</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>960.6834844927918</v>
+        <v>971.0740953286818</v>
       </c>
       <c r="C11" t="n">
-        <v>960.6834844927918</v>
+        <v>662.541640343504</v>
       </c>
       <c r="D11" t="n">
-        <v>662.8478478412749</v>
+        <v>662.541640343504</v>
       </c>
       <c r="E11" t="n">
-        <v>662.8478478412749</v>
+        <v>337.1834497004933</v>
       </c>
       <c r="F11" t="n">
-        <v>662.8478478412749</v>
+        <v>337.1834497004933</v>
       </c>
       <c r="G11" t="n">
-        <v>306.5301087033826</v>
+        <v>337.1834497004933</v>
       </c>
       <c r="H11" t="n">
-        <v>52.21888247233252</v>
+        <v>82.87222346944327</v>
       </c>
       <c r="I11" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J11" t="n">
-        <v>101.7343437488734</v>
+        <v>269.1399927692265</v>
       </c>
       <c r="K11" t="n">
-        <v>226.6837028891878</v>
+        <v>714.993310354994</v>
       </c>
       <c r="L11" t="n">
-        <v>559.441266841255</v>
+        <v>906.9058010046174</v>
       </c>
       <c r="M11" t="n">
-        <v>1205.64993743637</v>
+        <v>1152.114861874606</v>
       </c>
       <c r="N11" t="n">
-        <v>1459.440545648248</v>
+        <v>1405.905470086484</v>
       </c>
       <c r="O11" t="n">
-        <v>2062.744738531028</v>
+        <v>1831.621577572527</v>
       </c>
       <c r="P11" t="n">
-        <v>2539.976526313138</v>
+        <v>2308.853365354637</v>
       </c>
       <c r="Q11" t="n">
-        <v>2610.944123616626</v>
+        <v>2590.012803411431</v>
       </c>
       <c r="R11" t="n">
         <v>2610.944123616626</v>
@@ -5075,16 +5075,16 @@
         <v>2176.790480358323</v>
       </c>
       <c r="V11" t="n">
-        <v>1908.901125937138</v>
+        <v>1906.157654969986</v>
       </c>
       <c r="W11" t="n">
-        <v>1616.562532622258</v>
+        <v>1613.819061655106</v>
       </c>
       <c r="X11" t="n">
-        <v>1616.562532622258</v>
+        <v>1300.78336534926</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.85326260168</v>
+        <v>971.0740953286818</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>191.019910094692</v>
       </c>
       <c r="H12" t="n">
-        <v>91.86075829879103</v>
+        <v>91.86075829879101</v>
       </c>
       <c r="I12" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J12" t="n">
-        <v>62.89210503677878</v>
+        <v>187.7222300237836</v>
       </c>
       <c r="K12" t="n">
-        <v>159.28916713022</v>
+        <v>544.4495929939972</v>
       </c>
       <c r="L12" t="n">
-        <v>335.2294544063458</v>
+        <v>720.3898802701229</v>
       </c>
       <c r="M12" t="n">
-        <v>981.4381250014608</v>
+        <v>1366.598550865238</v>
       </c>
       <c r="N12" t="n">
-        <v>1622.883525376391</v>
+        <v>2012.807221460353</v>
       </c>
       <c r="O12" t="n">
         <v>2214.738254668668</v>
@@ -5145,7 +5145,7 @@
         <v>2601.126333780563</v>
       </c>
       <c r="S12" t="n">
-        <v>2455.038363154147</v>
+        <v>2455.038363154148</v>
       </c>
       <c r="T12" t="n">
         <v>2258.782274920271</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>596.8598439155724</v>
+        <v>596.8598439155719</v>
       </c>
       <c r="C13" t="n">
-        <v>488.353722942899</v>
+        <v>488.3537229428987</v>
       </c>
       <c r="D13" t="n">
-        <v>398.6671454857969</v>
+        <v>398.6671454857967</v>
       </c>
       <c r="E13" t="n">
-        <v>398.6671454857969</v>
+        <v>398.6671454857967</v>
       </c>
       <c r="F13" t="n">
-        <v>312.2072599431202</v>
+        <v>312.2072599431201</v>
       </c>
       <c r="G13" t="n">
-        <v>204.1829805182467</v>
+        <v>204.1829805182466</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7142952347942</v>
+        <v>111.7142952347941</v>
       </c>
       <c r="I13" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J13" t="n">
-        <v>104.4949470601005</v>
+        <v>104.4949470601006</v>
       </c>
       <c r="K13" t="n">
-        <v>282.1359376002135</v>
+        <v>282.1359376002138</v>
       </c>
       <c r="L13" t="n">
-        <v>548.41837071565</v>
+        <v>548.4183707156504</v>
       </c>
       <c r="M13" t="n">
-        <v>836.34538933421</v>
+        <v>836.3453893342105</v>
       </c>
       <c r="N13" t="n">
-        <v>1124.26906107894</v>
+        <v>1124.269061078941</v>
       </c>
       <c r="O13" t="n">
-        <v>1378.718196002887</v>
+        <v>1378.718196002888</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.470848568261</v>
+        <v>1581.470848568262</v>
       </c>
       <c r="Q13" t="n">
-        <v>1656.632645699482</v>
+        <v>1656.632645699483</v>
       </c>
       <c r="R13" t="n">
-        <v>1656.632645699482</v>
+        <v>1593.441863890704</v>
       </c>
       <c r="S13" t="n">
-        <v>1512.280145163346</v>
+        <v>1449.089363354569</v>
       </c>
       <c r="T13" t="n">
-        <v>1347.732616826577</v>
+        <v>1284.541835017799</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.018820739009</v>
+        <v>1274.987361003385</v>
       </c>
       <c r="V13" t="n">
-        <v>924.7643944883555</v>
+        <v>1274.987361003385</v>
       </c>
       <c r="W13" t="n">
-        <v>924.7643944883555</v>
+        <v>1046.000252921658</v>
       </c>
       <c r="X13" t="n">
-        <v>878.4407639788749</v>
+        <v>878.4407639788742</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.0782467905784</v>
+        <v>718.0782467905779</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>971.0740953286818</v>
+        <v>1036.665370934895</v>
       </c>
       <c r="C14" t="n">
-        <v>971.0740953286818</v>
+        <v>728.1329159497169</v>
       </c>
       <c r="D14" t="n">
-        <v>971.0740953286818</v>
+        <v>728.1329159497169</v>
       </c>
       <c r="E14" t="n">
-        <v>971.0740953286818</v>
+        <v>402.7747253067064</v>
       </c>
       <c r="F14" t="n">
-        <v>620.5182524943077</v>
+        <v>52.21888247233252</v>
       </c>
       <c r="G14" t="n">
-        <v>352.6859125506624</v>
+        <v>52.21888247233252</v>
       </c>
       <c r="H14" t="n">
-        <v>98.37468631961225</v>
+        <v>52.21888247233252</v>
       </c>
       <c r="I14" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J14" t="n">
-        <v>101.7343437488734</v>
+        <v>269.1399927692265</v>
       </c>
       <c r="K14" t="n">
-        <v>547.5876613346409</v>
+        <v>714.993310354994</v>
       </c>
       <c r="L14" t="n">
-        <v>1152.98475438921</v>
+        <v>906.9058010046174</v>
       </c>
       <c r="M14" t="n">
-        <v>1799.193424984325</v>
+        <v>1152.114861874606</v>
       </c>
       <c r="N14" t="n">
-        <v>2052.984033196204</v>
+        <v>1405.905470086484</v>
       </c>
       <c r="O14" t="n">
-        <v>2381.325459620796</v>
+        <v>1831.621577572527</v>
       </c>
       <c r="P14" t="n">
-        <v>2539.976526313138</v>
+        <v>2308.853365354637</v>
       </c>
       <c r="Q14" t="n">
-        <v>2610.944123616626</v>
+        <v>2590.012803411431</v>
       </c>
       <c r="R14" t="n">
         <v>2610.944123616626</v>
       </c>
       <c r="S14" t="n">
-        <v>2522.90645759648</v>
+        <v>2610.944123616626</v>
       </c>
       <c r="T14" t="n">
-        <v>2370.024923204302</v>
+        <v>2568.551534073425</v>
       </c>
       <c r="U14" t="n">
-        <v>2176.790480358324</v>
+        <v>2568.551534073425</v>
       </c>
       <c r="V14" t="n">
-        <v>1906.157654969987</v>
+        <v>2297.918708685087</v>
       </c>
       <c r="W14" t="n">
-        <v>1613.819061655106</v>
+        <v>2005.580115370207</v>
       </c>
       <c r="X14" t="n">
-        <v>1300.78336534926</v>
+        <v>1692.544419064361</v>
       </c>
       <c r="Y14" t="n">
-        <v>971.0740953286818</v>
+        <v>1362.835149043783</v>
       </c>
     </row>
     <row r="15">
@@ -5349,37 +5349,37 @@
         <v>191.019910094692</v>
       </c>
       <c r="H15" t="n">
-        <v>91.86075829879103</v>
+        <v>91.86075829879101</v>
       </c>
       <c r="I15" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J15" t="n">
-        <v>62.89210503677878</v>
+        <v>187.7222300237836</v>
       </c>
       <c r="K15" t="n">
-        <v>159.28916713022</v>
+        <v>545.9398767596776</v>
       </c>
       <c r="L15" t="n">
-        <v>702.3613962567704</v>
+        <v>1089.012105886228</v>
       </c>
       <c r="M15" t="n">
-        <v>1270.555999716259</v>
+        <v>1452.503180941731</v>
       </c>
       <c r="N15" t="n">
-        <v>1515.581899281344</v>
+        <v>1697.529080506815</v>
       </c>
       <c r="O15" t="n">
-        <v>2107.436628573621</v>
+        <v>1899.46011371513</v>
       </c>
       <c r="P15" t="n">
-        <v>2565.449159987912</v>
+        <v>2357.472645129422</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.944123616626</v>
       </c>
       <c r="R15" t="n">
-        <v>2601.126333780562</v>
+        <v>2601.126333780563</v>
       </c>
       <c r="S15" t="n">
         <v>2455.038363154147</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>594.6562980856298</v>
+        <v>675.9156300596148</v>
       </c>
       <c r="C16" t="n">
-        <v>486.1501771129565</v>
+        <v>567.4095090869416</v>
       </c>
       <c r="D16" t="n">
-        <v>486.1501771129565</v>
+        <v>477.7229316298396</v>
       </c>
       <c r="E16" t="n">
-        <v>398.667145485797</v>
+        <v>390.2399000026803</v>
       </c>
       <c r="F16" t="n">
-        <v>312.2072599431203</v>
+        <v>303.7800144600034</v>
       </c>
       <c r="G16" t="n">
-        <v>204.1829805182468</v>
+        <v>204.1829805182466</v>
       </c>
       <c r="H16" t="n">
-        <v>111.7142952347942</v>
+        <v>111.7142952347941</v>
       </c>
       <c r="I16" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J16" t="n">
-        <v>104.4949470601004</v>
+        <v>104.4949470601006</v>
       </c>
       <c r="K16" t="n">
-        <v>282.1359376002135</v>
+        <v>282.1359376002138</v>
       </c>
       <c r="L16" t="n">
-        <v>548.4183707156501</v>
+        <v>548.4183707156504</v>
       </c>
       <c r="M16" t="n">
-        <v>836.3453893342099</v>
+        <v>836.3453893342106</v>
       </c>
       <c r="N16" t="n">
-        <v>1124.26906107894</v>
+        <v>1124.269061078941</v>
       </c>
       <c r="O16" t="n">
-        <v>1378.718196002887</v>
+        <v>1378.718196002888</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.470848568261</v>
+        <v>1581.470848568262</v>
       </c>
       <c r="Q16" t="n">
-        <v>1656.632645699482</v>
+        <v>1656.632645699483</v>
       </c>
       <c r="R16" t="n">
-        <v>1593.441863890702</v>
+        <v>1593.441863890704</v>
       </c>
       <c r="S16" t="n">
-        <v>1449.089363354567</v>
+        <v>1449.089363354569</v>
       </c>
       <c r="T16" t="n">
-        <v>1284.541835017798</v>
+        <v>1449.089363354569</v>
       </c>
       <c r="U16" t="n">
-        <v>1284.541835017798</v>
+        <v>1220.375567267001</v>
       </c>
       <c r="V16" t="n">
-        <v>1090.287408767144</v>
+        <v>1026.121141016348</v>
       </c>
       <c r="W16" t="n">
-        <v>861.3003006854175</v>
+        <v>797.1340329346208</v>
       </c>
       <c r="X16" t="n">
-        <v>755.0188152739263</v>
+        <v>797.1340329346208</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.6562980856298</v>
+        <v>797.1340329346208</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1459.755815107244</v>
+        <v>1459.755815107243</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.663488012627</v>
+        <v>1232.663488012626</v>
       </c>
       <c r="D17" t="n">
-        <v>1016.267979251672</v>
+        <v>1016.267979251671</v>
       </c>
       <c r="E17" t="n">
-        <v>772.3499164992231</v>
+        <v>772.3499164992224</v>
       </c>
       <c r="F17" t="n">
-        <v>503.2342015554108</v>
+        <v>503.2342015554102</v>
       </c>
       <c r="G17" t="n">
-        <v>228.3565903080801</v>
+        <v>228.3565903080799</v>
       </c>
       <c r="H17" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="I17" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="J17" t="n">
-        <v>105.0009532441326</v>
+        <v>272.4066022644856</v>
       </c>
       <c r="K17" t="n">
-        <v>229.950312384447</v>
+        <v>397.3559614048</v>
       </c>
       <c r="L17" t="n">
-        <v>421.8628030340702</v>
+        <v>589.2684520544233</v>
       </c>
       <c r="M17" t="n">
-        <v>1108.495766133017</v>
+        <v>1275.90141515337</v>
       </c>
       <c r="N17" t="n">
-        <v>1795.128729231964</v>
+        <v>1529.692023365248</v>
       </c>
       <c r="O17" t="n">
-        <v>2226.075213293986</v>
+        <v>1994.952052335483</v>
       </c>
       <c r="P17" t="n">
-        <v>2703.307001076095</v>
+        <v>2472.183840117593</v>
       </c>
       <c r="Q17" t="n">
-        <v>2774.274598379583</v>
+        <v>2753.343278174387</v>
       </c>
       <c r="R17" t="n">
-        <v>2774.274598379583</v>
+        <v>2774.274598379582</v>
       </c>
       <c r="S17" t="n">
-        <v>2767.677060249999</v>
+        <v>2767.677060249997</v>
       </c>
       <c r="T17" t="n">
-        <v>2696.235653748383</v>
+        <v>2696.235653748382</v>
       </c>
       <c r="U17" t="n">
-        <v>2584.441338792966</v>
+        <v>2584.441338792964</v>
       </c>
       <c r="V17" t="n">
-        <v>2395.24864129519</v>
+        <v>2395.248641295188</v>
       </c>
       <c r="W17" t="n">
-        <v>2184.350175870871</v>
+        <v>2184.35017587087</v>
       </c>
       <c r="X17" t="n">
-        <v>1952.754607455587</v>
+        <v>1952.754607455586</v>
       </c>
       <c r="Y17" t="n">
-        <v>1704.48546532557</v>
+        <v>1704.485465325569</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>194.2865195899511</v>
       </c>
       <c r="H18" t="n">
-        <v>95.12736779405017</v>
+        <v>95.12736779405013</v>
       </c>
       <c r="I18" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="J18" t="n">
-        <v>66.15871453203793</v>
+        <v>190.9888395190427</v>
       </c>
       <c r="K18" t="n">
-        <v>162.5557766254792</v>
+        <v>549.2064862549367</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6280057520296</v>
+        <v>1092.278715381487</v>
       </c>
       <c r="M18" t="n">
-        <v>1391.346903720804</v>
+        <v>1316.949600237761</v>
       </c>
       <c r="N18" t="n">
-        <v>2077.979866819751</v>
+        <v>1561.975499802846</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.910900028066</v>
+        <v>1902.726723210389</v>
       </c>
       <c r="P18" t="n">
-        <v>2422.64529048882</v>
+        <v>2360.739254624681</v>
       </c>
       <c r="Q18" t="n">
         <v>2614.210733111885</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150.815539684665</v>
+        <v>146.5658864386953</v>
       </c>
       <c r="C19" t="n">
-        <v>112.4073118500478</v>
+        <v>119.4998933565838</v>
       </c>
       <c r="D19" t="n">
-        <v>104.1608622835074</v>
+        <v>111.2534437900435</v>
       </c>
       <c r="E19" t="n">
-        <v>98.11795854690955</v>
+        <v>105.2105400534458</v>
       </c>
       <c r="F19" t="n">
-        <v>93.09820089479446</v>
+        <v>100.1907824013308</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51404936048267</v>
+        <v>73.60663086701912</v>
       </c>
       <c r="H19" t="n">
-        <v>55.48549196759167</v>
+        <v>62.57807347412824</v>
       </c>
       <c r="I19" t="n">
-        <v>55.48549196759167</v>
+        <v>62.57807347412824</v>
       </c>
       <c r="J19" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="K19" t="n">
         <v>173.8989787853803</v>
@@ -5683,7 +5683,7 @@
         <v>609.6534230747279</v>
       </c>
       <c r="N19" t="n">
-        <v>838.349591097134</v>
+        <v>838.3495910971341</v>
       </c>
       <c r="O19" t="n">
         <v>1033.571222298756</v>
@@ -5698,25 +5698,25 @@
         <v>1193.030664550702</v>
       </c>
       <c r="S19" t="n">
-        <v>988.2481020593327</v>
+        <v>988.248102059333</v>
       </c>
       <c r="T19" t="n">
-        <v>905.1407016131247</v>
+        <v>763.2705117673297</v>
       </c>
       <c r="U19" t="n">
-        <v>757.8670334161185</v>
+        <v>611.747190324353</v>
       </c>
       <c r="V19" t="n">
-        <v>645.0527350560269</v>
+        <v>498.9328919642616</v>
       </c>
       <c r="W19" t="n">
-        <v>497.5057548648616</v>
+        <v>351.3859117730963</v>
       </c>
       <c r="X19" t="n">
-        <v>411.3863938126395</v>
+        <v>265.2665507208744</v>
       </c>
       <c r="Y19" t="n">
-        <v>332.4640045149047</v>
+        <v>186.3441614231397</v>
       </c>
     </row>
     <row r="20">
@@ -5741,55 +5741,55 @@
         <v>503.2342015554109</v>
       </c>
       <c r="G20" t="n">
-        <v>228.3565903080801</v>
+        <v>228.3565903080799</v>
       </c>
       <c r="H20" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="I20" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="J20" t="n">
         <v>272.4066022644856</v>
       </c>
       <c r="K20" t="n">
-        <v>397.3559614048</v>
+        <v>718.2599198502531</v>
       </c>
       <c r="L20" t="n">
-        <v>589.2684520544232</v>
+        <v>910.1724104998764</v>
       </c>
       <c r="M20" t="n">
-        <v>1275.90141515337</v>
+        <v>1155.381471369865</v>
       </c>
       <c r="N20" t="n">
-        <v>1529.692023365248</v>
+        <v>1409.172079581743</v>
       </c>
       <c r="O20" t="n">
-        <v>2132.996216248028</v>
+        <v>1994.952052335483</v>
       </c>
       <c r="P20" t="n">
-        <v>2493.11516032279</v>
+        <v>2472.183840117593</v>
       </c>
       <c r="Q20" t="n">
-        <v>2774.274598379583</v>
+        <v>2753.343278174387</v>
       </c>
       <c r="R20" t="n">
-        <v>2774.274598379583</v>
+        <v>2774.274598379582</v>
       </c>
       <c r="S20" t="n">
-        <v>2767.677060249999</v>
+        <v>2767.677060249997</v>
       </c>
       <c r="T20" t="n">
-        <v>2696.235653748384</v>
+        <v>2696.235653748382</v>
       </c>
       <c r="U20" t="n">
-        <v>2584.441338792965</v>
+        <v>2584.441338792964</v>
       </c>
       <c r="V20" t="n">
-        <v>2395.24864129519</v>
+        <v>2395.248641295189</v>
       </c>
       <c r="W20" t="n">
-        <v>2184.350175870871</v>
+        <v>2184.35017587087</v>
       </c>
       <c r="X20" t="n">
         <v>1952.754607455586</v>
@@ -5823,31 +5823,31 @@
         <v>194.2865195899511</v>
       </c>
       <c r="H21" t="n">
-        <v>95.12736779405017</v>
+        <v>95.12736779405013</v>
       </c>
       <c r="I21" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="J21" t="n">
         <v>190.9888395190427</v>
       </c>
       <c r="K21" t="n">
-        <v>454.396127778793</v>
+        <v>549.2064862549367</v>
       </c>
       <c r="L21" t="n">
-        <v>997.4683569053434</v>
+        <v>1092.278715381487</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.139241761618</v>
+        <v>1316.949600237761</v>
       </c>
       <c r="N21" t="n">
-        <v>1908.772204860565</v>
+        <v>1700.795690002074</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.70323806888</v>
+        <v>1902.726723210389</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.715769483171</v>
+        <v>2360.739254624681</v>
       </c>
       <c r="Q21" t="n">
         <v>2614.210733111885</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>423.2136846237501</v>
+        <v>434.5559193762567</v>
       </c>
       <c r="C22" t="n">
-        <v>254.2775016958431</v>
+        <v>407.4899262941452</v>
       </c>
       <c r="D22" t="n">
-        <v>246.0310521293027</v>
+        <v>394.9938234816343</v>
       </c>
       <c r="E22" t="n">
-        <v>98.11795854690955</v>
+        <v>247.0807298992412</v>
       </c>
       <c r="F22" t="n">
-        <v>93.09820089479446</v>
+        <v>242.0609722471262</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51404936048267</v>
+        <v>73.60663086701912</v>
       </c>
       <c r="H22" t="n">
-        <v>55.48549196759167</v>
+        <v>62.57807347412824</v>
       </c>
       <c r="I22" t="n">
-        <v>55.48549196759167</v>
+        <v>62.57807347412824</v>
       </c>
       <c r="J22" t="n">
-        <v>55.48549196759167</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="K22" t="n">
         <v>173.8989787853803</v>
@@ -5920,7 +5920,7 @@
         <v>609.6534230747279</v>
       </c>
       <c r="N22" t="n">
-        <v>838.349591097134</v>
+        <v>838.3495910971341</v>
       </c>
       <c r="O22" t="n">
         <v>1033.571222298756</v>
@@ -5941,19 +5941,19 @@
         <v>1047.01089145892</v>
       </c>
       <c r="U22" t="n">
-        <v>888.3949885094083</v>
+        <v>899.7372232619143</v>
       </c>
       <c r="V22" t="n">
-        <v>775.5806901493168</v>
+        <v>786.9229249018229</v>
       </c>
       <c r="W22" t="n">
-        <v>628.0337099581513</v>
+        <v>639.3759447106577</v>
       </c>
       <c r="X22" t="n">
-        <v>541.9143489059293</v>
+        <v>553.2565836584357</v>
       </c>
       <c r="Y22" t="n">
-        <v>462.9919596081945</v>
+        <v>474.334194360701</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1459.755815107244</v>
+        <v>1459.755815107242</v>
       </c>
       <c r="C23" t="n">
-        <v>1232.663488012628</v>
+        <v>1232.663488012625</v>
       </c>
       <c r="D23" t="n">
-        <v>1016.267979251672</v>
+        <v>1016.267979251671</v>
       </c>
       <c r="E23" t="n">
-        <v>772.3499164992236</v>
+        <v>772.3499164992218</v>
       </c>
       <c r="F23" t="n">
-        <v>503.2342015554113</v>
+        <v>503.2342015554096</v>
       </c>
       <c r="G23" t="n">
-        <v>228.3565903080801</v>
+        <v>228.3565903080799</v>
       </c>
       <c r="H23" t="n">
-        <v>55.48549196759169</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="I23" t="n">
-        <v>55.48549196759169</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="J23" t="n">
-        <v>105.0009532441326</v>
+        <v>272.4066022644856</v>
       </c>
       <c r="K23" t="n">
-        <v>550.8542708299001</v>
+        <v>718.2599198502531</v>
       </c>
       <c r="L23" t="n">
-        <v>1156.251363884469</v>
+        <v>910.1724104998764</v>
       </c>
       <c r="M23" t="n">
-        <v>1842.884326983416</v>
+        <v>1155.381471369865</v>
       </c>
       <c r="N23" t="n">
-        <v>2096.674935195295</v>
+        <v>1412.579179657898</v>
       </c>
       <c r="O23" t="n">
-        <v>2322.986948627957</v>
+        <v>2015.883372540678</v>
       </c>
       <c r="P23" t="n">
-        <v>2682.375680870901</v>
+        <v>2493.115160322788</v>
       </c>
       <c r="Q23" t="n">
-        <v>2753.34327817439</v>
+        <v>2774.274598379582</v>
       </c>
       <c r="R23" t="n">
-        <v>2774.274598379584</v>
+        <v>2774.274598379582</v>
       </c>
       <c r="S23" t="n">
-        <v>2767.67706025</v>
+        <v>2767.677060249997</v>
       </c>
       <c r="T23" t="n">
-        <v>2696.235653748384</v>
+        <v>2696.235653748382</v>
       </c>
       <c r="U23" t="n">
-        <v>2584.441338792966</v>
+        <v>2584.441338792964</v>
       </c>
       <c r="V23" t="n">
-        <v>2395.248641295191</v>
+        <v>2395.248641295188</v>
       </c>
       <c r="W23" t="n">
-        <v>2184.350175870872</v>
+        <v>2184.350175870869</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.754607455587</v>
+        <v>1952.754607455584</v>
       </c>
       <c r="Y23" t="n">
-        <v>1704.48546532557</v>
+        <v>1704.485465325568</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>960.7054634561654</v>
+        <v>960.7054634561651</v>
       </c>
       <c r="C24" t="n">
-        <v>786.2524341750384</v>
+        <v>786.2524341750382</v>
       </c>
       <c r="D24" t="n">
-        <v>637.3180245137871</v>
+        <v>637.3180245137869</v>
       </c>
       <c r="E24" t="n">
-        <v>478.0805695083316</v>
+        <v>478.0805695083315</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5460115352165</v>
+        <v>331.5460115352164</v>
       </c>
       <c r="G24" t="n">
-        <v>194.2865195899512</v>
+        <v>194.2865195899511</v>
       </c>
       <c r="H24" t="n">
-        <v>95.1273677940502</v>
+        <v>95.12736779405013</v>
       </c>
       <c r="I24" t="n">
-        <v>55.48549196759169</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="J24" t="n">
         <v>190.9888395190427</v>
@@ -6075,34 +6075,34 @@
         <v>1092.278715381487</v>
       </c>
       <c r="M24" t="n">
-        <v>1777.997613350261</v>
+        <v>1455.769790436989</v>
       </c>
       <c r="N24" t="n">
-        <v>2023.023512915346</v>
+        <v>1700.795690002074</v>
       </c>
       <c r="O24" t="n">
-        <v>2425.981379022418</v>
+        <v>1902.726723210389</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.715769483172</v>
+        <v>2360.739254624681</v>
       </c>
       <c r="Q24" t="n">
         <v>2614.210733111885</v>
       </c>
       <c r="R24" t="n">
-        <v>2604.392943275822</v>
+        <v>2604.392943275821</v>
       </c>
       <c r="S24" t="n">
-        <v>2458.304972649407</v>
+        <v>2458.304972649406</v>
       </c>
       <c r="T24" t="n">
-        <v>2262.048884415531</v>
+        <v>2262.04888441553</v>
       </c>
       <c r="U24" t="n">
         <v>2033.922064406664</v>
       </c>
       <c r="V24" t="n">
-        <v>1798.769956174922</v>
+        <v>1798.769956174921</v>
       </c>
       <c r="W24" t="n">
         <v>1544.53259944672</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>310.9350756122429</v>
+        <v>150.815539684666</v>
       </c>
       <c r="C25" t="n">
-        <v>283.8690825301313</v>
+        <v>123.7495466025545</v>
       </c>
       <c r="D25" t="n">
-        <v>275.6226329635909</v>
+        <v>115.5030970360141</v>
       </c>
       <c r="E25" t="n">
-        <v>239.9881483927048</v>
+        <v>109.4601932994164</v>
       </c>
       <c r="F25" t="n">
-        <v>93.09820089479447</v>
+        <v>104.4404356473014</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51404936048269</v>
+        <v>77.85628411298975</v>
       </c>
       <c r="H25" t="n">
-        <v>55.48549196759169</v>
+        <v>62.57807347412824</v>
       </c>
       <c r="I25" t="n">
-        <v>55.48549196759169</v>
+        <v>62.57807347412824</v>
       </c>
       <c r="J25" t="n">
-        <v>55.48549196759169</v>
+        <v>55.48549196759163</v>
       </c>
       <c r="K25" t="n">
-        <v>173.8989787853804</v>
+        <v>173.8989787853803</v>
       </c>
       <c r="L25" t="n">
         <v>380.9539081784924</v>
@@ -6157,7 +6157,7 @@
         <v>609.6534230747279</v>
       </c>
       <c r="N25" t="n">
-        <v>838.349591097134</v>
+        <v>838.3495910971341</v>
       </c>
       <c r="O25" t="n">
         <v>1033.571222298756</v>
@@ -6169,28 +6169,28 @@
         <v>1193.030664550702</v>
       </c>
       <c r="R25" t="n">
-        <v>1069.409820786689</v>
+        <v>1193.030664550702</v>
       </c>
       <c r="S25" t="n">
-        <v>1006.497448141115</v>
+        <v>1130.118291905128</v>
       </c>
       <c r="T25" t="n">
-        <v>923.3900476949074</v>
+        <v>905.1407016131252</v>
       </c>
       <c r="U25" t="n">
-        <v>776.1163794979011</v>
+        <v>757.8670334161191</v>
       </c>
       <c r="V25" t="n">
-        <v>663.3020811378095</v>
+        <v>645.0527350560276</v>
       </c>
       <c r="W25" t="n">
-        <v>515.7551009466442</v>
+        <v>355.635565019067</v>
       </c>
       <c r="X25" t="n">
-        <v>429.6357398944222</v>
+        <v>269.516203966845</v>
       </c>
       <c r="Y25" t="n">
-        <v>350.7133505966873</v>
+        <v>190.5938146691103</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1865.260835062541</v>
+        <v>1865.26083506254</v>
       </c>
       <c r="C26" t="n">
-        <v>1577.738446012691</v>
+        <v>1577.73844601269</v>
       </c>
       <c r="D26" t="n">
-        <v>1300.912875296502</v>
+        <v>1300.912875296501</v>
       </c>
       <c r="E26" t="n">
-        <v>996.5647505888193</v>
+        <v>996.5647505888184</v>
       </c>
       <c r="F26" t="n">
-        <v>667.0189736897734</v>
+        <v>667.0189736897725</v>
       </c>
       <c r="G26" t="n">
         <v>331.7113004872086</v>
       </c>
       <c r="H26" t="n">
-        <v>98.41014019148668</v>
+        <v>98.41014019148666</v>
       </c>
       <c r="I26" t="n">
         <v>73.26440227953501</v>
       </c>
       <c r="J26" t="n">
-        <v>122.7798635560759</v>
+        <v>290.1855125764289</v>
       </c>
       <c r="K26" t="n">
-        <v>568.6331811418435</v>
+        <v>736.0388301621965</v>
       </c>
       <c r="L26" t="n">
-        <v>1174.030274196413</v>
+        <v>1341.435923216766</v>
       </c>
       <c r="M26" t="n">
-        <v>1593.829311670128</v>
+        <v>1614.760631875324</v>
       </c>
       <c r="N26" t="n">
-        <v>2280.593375049871</v>
+        <v>2301.524695255066</v>
       </c>
       <c r="O26" t="n">
-        <v>2883.897567932651</v>
+        <v>2904.828888137847</v>
       </c>
       <c r="P26" t="n">
-        <v>3361.129355714761</v>
+        <v>3382.060675919956</v>
       </c>
       <c r="Q26" t="n">
-        <v>3642.288793771555</v>
+        <v>3663.22011397675</v>
       </c>
       <c r="R26" t="n">
         <v>3663.22011397675</v>
@@ -6254,22 +6254,22 @@
         <v>3596.192513891932</v>
       </c>
       <c r="T26" t="n">
-        <v>3464.321045435083</v>
+        <v>3464.321045435082</v>
       </c>
       <c r="U26" t="n">
-        <v>3292.096668524431</v>
+        <v>3292.09666852443</v>
       </c>
       <c r="V26" t="n">
-        <v>3042.473909071422</v>
+        <v>3042.473909071421</v>
       </c>
       <c r="W26" t="n">
-        <v>2771.145381691869</v>
+        <v>2771.145381691868</v>
       </c>
       <c r="X26" t="n">
-        <v>2479.119751321351</v>
+        <v>2479.11975132135</v>
       </c>
       <c r="Y26" t="n">
-        <v>2170.420547236101</v>
+        <v>2170.4205472361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>73.26440227953501</v>
       </c>
       <c r="J27" t="n">
-        <v>83.9376248439813</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K27" t="n">
-        <v>180.3346869374226</v>
+        <v>566.9853965668801</v>
       </c>
       <c r="L27" t="n">
-        <v>723.406916063973</v>
+        <v>1110.057625693431</v>
       </c>
       <c r="M27" t="n">
-        <v>948.0778009202473</v>
+        <v>1473.548700748933</v>
       </c>
       <c r="N27" t="n">
-        <v>1667.65265108545</v>
+        <v>1718.574600314018</v>
       </c>
       <c r="O27" t="n">
-        <v>2235.78377447587</v>
+        <v>1920.505633522333</v>
       </c>
       <c r="P27" t="n">
         <v>2378.518164936624</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.3179338026381</v>
+        <v>558.317933802638</v>
       </c>
       <c r="C28" t="n">
-        <v>470.8218787652929</v>
+        <v>470.8218787652928</v>
       </c>
       <c r="D28" t="n">
-        <v>402.1453672435188</v>
+        <v>402.1453672435187</v>
       </c>
       <c r="E28" t="n">
-        <v>335.6724015516874</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F28" t="n">
         <v>270.2225819443386</v>
@@ -6382,7 +6382,7 @@
         <v>73.26440227953501</v>
       </c>
       <c r="J28" t="n">
-        <v>146.1324324905179</v>
+        <v>146.132432490518</v>
       </c>
       <c r="K28" t="n">
         <v>344.3653886538461</v>
@@ -6391,7 +6391,7 @@
         <v>631.2397873924976</v>
       </c>
       <c r="M28" t="n">
-        <v>939.7587716342726</v>
+        <v>939.7587716342728</v>
       </c>
       <c r="N28" t="n">
         <v>1248.274409002218</v>
@@ -6403,7 +6403,7 @@
         <v>1746.660127737969</v>
       </c>
       <c r="Q28" t="n">
-        <v>1842.413890492404</v>
+        <v>1842.413890492405</v>
       </c>
       <c r="R28" t="n">
         <v>1800.233174618953</v>
@@ -6415,19 +6415,19 @@
         <v>1533.353277616704</v>
       </c>
       <c r="U28" t="n">
-        <v>1325.649547464464</v>
+        <v>1325.649547464465</v>
       </c>
       <c r="V28" t="n">
         <v>1152.405187149139</v>
       </c>
       <c r="W28" t="n">
-        <v>944.4281450027402</v>
+        <v>944.4281450027405</v>
       </c>
       <c r="X28" t="n">
-        <v>797.8787219952845</v>
+        <v>797.8787219952849</v>
       </c>
       <c r="Y28" t="n">
-        <v>658.5262707423161</v>
+        <v>658.526270742316</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6446,52 @@
         <v>1300.912875296501</v>
       </c>
       <c r="E29" t="n">
-        <v>996.5647505888185</v>
+        <v>996.5647505888184</v>
       </c>
       <c r="F29" t="n">
-        <v>667.0189736897728</v>
+        <v>667.0189736897726</v>
       </c>
       <c r="G29" t="n">
         <v>331.7113004872087</v>
       </c>
       <c r="H29" t="n">
-        <v>98.41014019148668</v>
+        <v>98.41014019148666</v>
       </c>
       <c r="I29" t="n">
         <v>73.26440227953501</v>
       </c>
       <c r="J29" t="n">
-        <v>229.343621452017</v>
+        <v>290.1855125764289</v>
       </c>
       <c r="K29" t="n">
-        <v>675.1969390377845</v>
+        <v>736.0388301621965</v>
       </c>
       <c r="L29" t="n">
-        <v>1280.594032092354</v>
+        <v>1341.435923216766</v>
       </c>
       <c r="M29" t="n">
-        <v>1970.821491120246</v>
+        <v>1614.760631875323</v>
       </c>
       <c r="N29" t="n">
-        <v>2657.585554499989</v>
+        <v>2301.524695255066</v>
       </c>
       <c r="O29" t="n">
-        <v>2883.897567932651</v>
+        <v>2904.828888137846</v>
       </c>
       <c r="P29" t="n">
-        <v>3361.129355714761</v>
+        <v>3382.060675919956</v>
       </c>
       <c r="Q29" t="n">
-        <v>3642.288793771555</v>
+        <v>3663.22011397675</v>
       </c>
       <c r="R29" t="n">
         <v>3663.22011397675</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.192513891931</v>
+        <v>3596.192513891932</v>
       </c>
       <c r="T29" t="n">
-        <v>3464.321045435082</v>
+        <v>3464.321045435083</v>
       </c>
       <c r="U29" t="n">
         <v>3292.09666852443</v>
@@ -6531,7 +6531,7 @@
         <v>349.3249218471598</v>
       </c>
       <c r="G30" t="n">
-        <v>212.0654299018945</v>
+        <v>212.0654299018944</v>
       </c>
       <c r="H30" t="n">
         <v>112.9062781059935</v>
@@ -6540,19 +6540,19 @@
         <v>73.26440227953501</v>
       </c>
       <c r="J30" t="n">
-        <v>83.93762484398127</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K30" t="n">
-        <v>442.1552715798753</v>
+        <v>566.9853965668801</v>
       </c>
       <c r="L30" t="n">
-        <v>774.3288652925405</v>
+        <v>1110.057625693431</v>
       </c>
       <c r="M30" t="n">
-        <v>998.9997501488149</v>
+        <v>1334.728510549705</v>
       </c>
       <c r="N30" t="n">
-        <v>1718.574600314018</v>
+        <v>1579.75441011479</v>
       </c>
       <c r="O30" t="n">
         <v>1920.505633522333</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.3179338026381</v>
+        <v>558.317933802638</v>
       </c>
       <c r="C31" t="n">
         <v>470.8218787652928</v>
       </c>
       <c r="D31" t="n">
-        <v>402.1453672435188</v>
+        <v>402.1453672435187</v>
       </c>
       <c r="E31" t="n">
-        <v>335.6724015516873</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F31" t="n">
         <v>270.2225819443386</v>
@@ -6619,7 +6619,7 @@
         <v>73.26440227953501</v>
       </c>
       <c r="J31" t="n">
-        <v>146.1324324905179</v>
+        <v>146.132432490518</v>
       </c>
       <c r="K31" t="n">
         <v>344.3653886538461</v>
@@ -6640,7 +6640,7 @@
         <v>1746.660127737969</v>
       </c>
       <c r="Q31" t="n">
-        <v>1842.413890492404</v>
+        <v>1842.413890492405</v>
       </c>
       <c r="R31" t="n">
         <v>1800.233174618953</v>
@@ -6652,19 +6652,19 @@
         <v>1533.353277616704</v>
       </c>
       <c r="U31" t="n">
-        <v>1325.649547464465</v>
+        <v>1325.649547464464</v>
       </c>
       <c r="V31" t="n">
         <v>1152.405187149139</v>
       </c>
       <c r="W31" t="n">
-        <v>944.4281450027405</v>
+        <v>944.4281450027402</v>
       </c>
       <c r="X31" t="n">
-        <v>797.8787219952849</v>
+        <v>797.8787219952844</v>
       </c>
       <c r="Y31" t="n">
-        <v>658.5262707423161</v>
+        <v>658.526270742316</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6680,49 @@
         <v>1577.73844601269</v>
       </c>
       <c r="D32" t="n">
-        <v>1300.912875296501</v>
+        <v>1300.912875296502</v>
       </c>
       <c r="E32" t="n">
-        <v>996.5647505888187</v>
+        <v>996.564750588819</v>
       </c>
       <c r="F32" t="n">
-        <v>667.0189736897728</v>
+        <v>667.0189736897731</v>
       </c>
       <c r="G32" t="n">
-        <v>331.7113004872087</v>
+        <v>331.7113004872084</v>
       </c>
       <c r="H32" t="n">
-        <v>98.41014019148668</v>
+        <v>98.41014019148665</v>
       </c>
       <c r="I32" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J32" t="n">
         <v>290.1855125764289</v>
       </c>
       <c r="K32" t="n">
-        <v>415.1348717167433</v>
+        <v>637.7168008826284</v>
       </c>
       <c r="L32" t="n">
-        <v>1020.531964771312</v>
+        <v>1243.113893937198</v>
       </c>
       <c r="M32" t="n">
-        <v>1710.759423799205</v>
+        <v>1933.34135296509</v>
       </c>
       <c r="N32" t="n">
-        <v>2397.523487178948</v>
+        <v>2620.105416344833</v>
       </c>
       <c r="O32" t="n">
-        <v>2883.897567932651</v>
+        <v>3223.409609227613</v>
       </c>
       <c r="P32" t="n">
-        <v>3361.129355714761</v>
+        <v>3382.060675919955</v>
       </c>
       <c r="Q32" t="n">
-        <v>3642.288793771555</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="R32" t="n">
-        <v>3663.22011397675</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="S32" t="n">
         <v>3596.192513891931</v>
@@ -6768,13 +6768,13 @@
         <v>349.3249218471598</v>
       </c>
       <c r="G33" t="n">
-        <v>212.0654299018945</v>
+        <v>212.0654299018944</v>
       </c>
       <c r="H33" t="n">
         <v>112.9062781059935</v>
       </c>
       <c r="I33" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J33" t="n">
         <v>208.767749830986</v>
@@ -6783,7 +6783,7 @@
         <v>566.9853965668801</v>
       </c>
       <c r="L33" t="n">
-        <v>787.8298027801586</v>
+        <v>1110.057625693431</v>
       </c>
       <c r="M33" t="n">
         <v>1473.548700748933</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.3179338026381</v>
+        <v>558.3179338026379</v>
       </c>
       <c r="C34" t="n">
-        <v>470.8218787652928</v>
+        <v>470.8218787652926</v>
       </c>
       <c r="D34" t="n">
-        <v>402.1453672435188</v>
+        <v>402.1453672435185</v>
       </c>
       <c r="E34" t="n">
-        <v>335.6724015516873</v>
+        <v>335.6724015516871</v>
       </c>
       <c r="F34" t="n">
-        <v>270.2225819443386</v>
+        <v>270.2225819443384</v>
       </c>
       <c r="G34" t="n">
-        <v>183.2083684547932</v>
+        <v>183.208368454793</v>
       </c>
       <c r="H34" t="n">
         <v>111.7497491066686</v>
       </c>
       <c r="I34" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J34" t="n">
         <v>146.1324324905179</v>
@@ -6865,19 +6865,19 @@
         <v>631.2397873924976</v>
       </c>
       <c r="M34" t="n">
-        <v>939.7587716342726</v>
+        <v>939.758771634273</v>
       </c>
       <c r="N34" t="n">
-        <v>1248.274409002218</v>
+        <v>1248.274409002219</v>
       </c>
       <c r="O34" t="n">
         <v>1523.31550954938</v>
       </c>
       <c r="P34" t="n">
-        <v>1746.660127737969</v>
+        <v>1746.66012773797</v>
       </c>
       <c r="Q34" t="n">
-        <v>1842.413890492404</v>
+        <v>1842.413890492405</v>
       </c>
       <c r="R34" t="n">
         <v>1800.233174618953</v>
@@ -6895,13 +6895,13 @@
         <v>1152.405187149139</v>
       </c>
       <c r="W34" t="n">
-        <v>944.4281450027402</v>
+        <v>944.4281450027399</v>
       </c>
       <c r="X34" t="n">
-        <v>797.8787219952844</v>
+        <v>797.8787219952843</v>
       </c>
       <c r="Y34" t="n">
-        <v>658.5262707423161</v>
+        <v>658.5262707423159</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.26083506254</v>
+        <v>1865.260835062541</v>
       </c>
       <c r="C35" t="n">
         <v>1577.73844601269</v>
       </c>
       <c r="D35" t="n">
-        <v>1300.912875296501</v>
+        <v>1300.912875296502</v>
       </c>
       <c r="E35" t="n">
-        <v>996.5647505888182</v>
+        <v>996.5647505888192</v>
       </c>
       <c r="F35" t="n">
-        <v>667.0189736897723</v>
+        <v>667.0189736897732</v>
       </c>
       <c r="G35" t="n">
-        <v>331.7113004872076</v>
+        <v>331.7113004872085</v>
       </c>
       <c r="H35" t="n">
-        <v>98.41014019148662</v>
+        <v>98.41014019148663</v>
       </c>
       <c r="I35" t="n">
-        <v>73.26440227953496</v>
+        <v>73.26440227953498</v>
       </c>
       <c r="J35" t="n">
         <v>290.1855125764289</v>
       </c>
       <c r="K35" t="n">
-        <v>736.0388301621964</v>
+        <v>736.0388301621965</v>
       </c>
       <c r="L35" t="n">
         <v>1341.435923216766</v>
       </c>
       <c r="M35" t="n">
-        <v>2031.663382244658</v>
+        <v>1614.760631875322</v>
       </c>
       <c r="N35" t="n">
-        <v>2657.585554499987</v>
+        <v>2301.524695255065</v>
       </c>
       <c r="O35" t="n">
-        <v>2883.89756793265</v>
+        <v>2904.828888137845</v>
       </c>
       <c r="P35" t="n">
-        <v>3361.129355714759</v>
+        <v>3382.060675919955</v>
       </c>
       <c r="Q35" t="n">
-        <v>3642.288793771553</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="R35" t="n">
-        <v>3663.220113976748</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="S35" t="n">
-        <v>3596.19251389193</v>
+        <v>3596.192513891931</v>
       </c>
       <c r="T35" t="n">
         <v>3464.321045435081</v>
       </c>
       <c r="U35" t="n">
-        <v>3292.09666852443</v>
+        <v>3292.096668524431</v>
       </c>
       <c r="V35" t="n">
-        <v>3042.473909071421</v>
+        <v>3042.473909071422</v>
       </c>
       <c r="W35" t="n">
-        <v>2771.145381691868</v>
+        <v>2771.145381691869</v>
       </c>
       <c r="X35" t="n">
-        <v>2479.11975132135</v>
+        <v>2479.119751321351</v>
       </c>
       <c r="Y35" t="n">
-        <v>2170.4205472361</v>
+        <v>2170.420547236101</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>978.4843737681086</v>
+        <v>978.4843737681084</v>
       </c>
       <c r="C36" t="n">
-        <v>804.0313444869817</v>
+        <v>804.0313444869814</v>
       </c>
       <c r="D36" t="n">
-        <v>655.0969348257304</v>
+        <v>655.0969348257302</v>
       </c>
       <c r="E36" t="n">
-        <v>495.8594798202748</v>
+        <v>495.8594798202747</v>
       </c>
       <c r="F36" t="n">
-        <v>349.3249218471598</v>
+        <v>349.3249218471597</v>
       </c>
       <c r="G36" t="n">
         <v>212.0654299018944</v>
@@ -7011,25 +7011,25 @@
         <v>112.9062781059935</v>
       </c>
       <c r="I36" t="n">
-        <v>73.26440227953496</v>
+        <v>73.26440227953498</v>
       </c>
       <c r="J36" t="n">
         <v>208.767749830986</v>
       </c>
       <c r="K36" t="n">
-        <v>566.98539656688</v>
+        <v>566.9853965668801</v>
       </c>
       <c r="L36" t="n">
-        <v>742.9256838430058</v>
+        <v>1110.057625693431</v>
       </c>
       <c r="M36" t="n">
-        <v>1428.64458181178</v>
+        <v>1334.728510549705</v>
       </c>
       <c r="N36" t="n">
-        <v>1673.670481376865</v>
+        <v>1579.75441011479</v>
       </c>
       <c r="O36" t="n">
-        <v>2235.78377447587</v>
+        <v>1920.505633522333</v>
       </c>
       <c r="P36" t="n">
         <v>2378.518164936624</v>
@@ -7059,7 +7059,7 @@
         <v>1354.46000955313</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.699710788177</v>
+        <v>1146.699710788176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.3179338026382</v>
+        <v>558.317933802638</v>
       </c>
       <c r="C37" t="n">
-        <v>470.8218787652929</v>
+        <v>470.8218787652928</v>
       </c>
       <c r="D37" t="n">
-        <v>402.1453672435189</v>
+        <v>402.1453672435187</v>
       </c>
       <c r="E37" t="n">
-        <v>335.6724015516874</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F37" t="n">
-        <v>270.2225819443387</v>
+        <v>270.2225819443386</v>
       </c>
       <c r="G37" t="n">
-        <v>183.2083684547933</v>
+        <v>183.2083684547932</v>
       </c>
       <c r="H37" t="n">
-        <v>111.7497491066687</v>
+        <v>111.7497491066686</v>
       </c>
       <c r="I37" t="n">
-        <v>73.26440227953496</v>
+        <v>73.26440227953498</v>
       </c>
       <c r="J37" t="n">
-        <v>146.1324324905179</v>
+        <v>146.1324324905172</v>
       </c>
       <c r="K37" t="n">
-        <v>344.3653886538461</v>
+        <v>344.3653886538454</v>
       </c>
       <c r="L37" t="n">
-        <v>631.2397873924976</v>
+        <v>631.239787392497</v>
       </c>
       <c r="M37" t="n">
-        <v>939.7587716342728</v>
+        <v>939.7587716342721</v>
       </c>
       <c r="N37" t="n">
         <v>1248.274409002218</v>
       </c>
       <c r="O37" t="n">
-        <v>1523.31550954938</v>
+        <v>1523.315509549379</v>
       </c>
       <c r="P37" t="n">
         <v>1746.660127737969</v>
@@ -7132,13 +7132,13 @@
         <v>1152.405187149139</v>
       </c>
       <c r="W37" t="n">
-        <v>944.4281450027403</v>
+        <v>944.4281450027402</v>
       </c>
       <c r="X37" t="n">
-        <v>797.8787219952846</v>
+        <v>797.8787219952844</v>
       </c>
       <c r="Y37" t="n">
-        <v>658.5262707423162</v>
+        <v>658.526270742316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.260835062541</v>
+        <v>1865.26083506254</v>
       </c>
       <c r="C38" t="n">
         <v>1577.73844601269</v>
       </c>
       <c r="D38" t="n">
-        <v>1300.912875296502</v>
+        <v>1300.912875296501</v>
       </c>
       <c r="E38" t="n">
-        <v>996.5647505888192</v>
+        <v>996.5647505888187</v>
       </c>
       <c r="F38" t="n">
         <v>667.0189736897732</v>
       </c>
       <c r="G38" t="n">
-        <v>331.7113004872087</v>
+        <v>331.7113004872085</v>
       </c>
       <c r="H38" t="n">
-        <v>98.41014019148668</v>
+        <v>98.41014019148663</v>
       </c>
       <c r="I38" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953498</v>
       </c>
       <c r="J38" t="n">
         <v>290.1855125764289</v>
       </c>
       <c r="K38" t="n">
-        <v>736.0388301621964</v>
+        <v>637.7168008826279</v>
       </c>
       <c r="L38" t="n">
-        <v>1341.435923216766</v>
+        <v>1243.113893937197</v>
       </c>
       <c r="M38" t="n">
-        <v>1593.829311670128</v>
+        <v>1933.34135296509</v>
       </c>
       <c r="N38" t="n">
-        <v>2280.593375049871</v>
+        <v>2620.105416344833</v>
       </c>
       <c r="O38" t="n">
-        <v>2883.897567932651</v>
+        <v>3223.409609227613</v>
       </c>
       <c r="P38" t="n">
-        <v>3361.129355714761</v>
+        <v>3382.060675919955</v>
       </c>
       <c r="Q38" t="n">
-        <v>3642.288793771555</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="R38" t="n">
-        <v>3663.22011397675</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="S38" t="n">
         <v>3596.192513891931</v>
@@ -7205,19 +7205,19 @@
         <v>3464.321045435082</v>
       </c>
       <c r="U38" t="n">
-        <v>3292.096668524431</v>
+        <v>3292.09666852443</v>
       </c>
       <c r="V38" t="n">
-        <v>3042.473909071422</v>
+        <v>3042.473909071421</v>
       </c>
       <c r="W38" t="n">
-        <v>2771.145381691869</v>
+        <v>2771.145381691868</v>
       </c>
       <c r="X38" t="n">
-        <v>2479.119751321351</v>
+        <v>2479.11975132135</v>
       </c>
       <c r="Y38" t="n">
-        <v>2170.420547236101</v>
+        <v>2170.4205472361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>978.4843737681086</v>
+        <v>978.4843737681084</v>
       </c>
       <c r="C39" t="n">
-        <v>804.0313444869817</v>
+        <v>804.0313444869814</v>
       </c>
       <c r="D39" t="n">
-        <v>655.0969348257304</v>
+        <v>655.0969348257302</v>
       </c>
       <c r="E39" t="n">
-        <v>495.8594798202748</v>
+        <v>495.8594798202747</v>
       </c>
       <c r="F39" t="n">
-        <v>349.3249218471598</v>
+        <v>349.3249218471597</v>
       </c>
       <c r="G39" t="n">
-        <v>212.0654299018945</v>
+        <v>212.0654299018944</v>
       </c>
       <c r="H39" t="n">
         <v>112.9062781059935</v>
       </c>
       <c r="I39" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953498</v>
       </c>
       <c r="J39" t="n">
         <v>208.767749830986</v>
@@ -7257,19 +7257,19 @@
         <v>566.9853965668801</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1607625082249</v>
+        <v>1110.057625693431</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.879660476999</v>
+        <v>1334.728510549705</v>
       </c>
       <c r="N39" t="n">
-        <v>1851.905560042084</v>
+        <v>1579.75441011479</v>
       </c>
       <c r="O39" t="n">
-        <v>2443.760289334361</v>
+        <v>1920.505633522333</v>
       </c>
       <c r="P39" t="n">
-        <v>2586.494679795115</v>
+        <v>2378.518164936624</v>
       </c>
       <c r="Q39" t="n">
         <v>2631.989643423829</v>
@@ -7296,7 +7296,7 @@
         <v>1354.46000955313</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.699710788177</v>
+        <v>1146.699710788176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>558.3179338026381</v>
+        <v>558.317933802638</v>
       </c>
       <c r="C40" t="n">
         <v>470.8218787652928</v>
       </c>
       <c r="D40" t="n">
-        <v>402.1453672435188</v>
+        <v>402.1453672435187</v>
       </c>
       <c r="E40" t="n">
-        <v>335.6724015516873</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F40" t="n">
         <v>270.2225819443386</v>
@@ -7327,19 +7327,19 @@
         <v>111.7497491066686</v>
       </c>
       <c r="I40" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953498</v>
       </c>
       <c r="J40" t="n">
-        <v>146.1324324905175</v>
+        <v>146.1324324905179</v>
       </c>
       <c r="K40" t="n">
-        <v>344.3653886538457</v>
+        <v>344.3653886538461</v>
       </c>
       <c r="L40" t="n">
-        <v>631.2397873924972</v>
+        <v>631.2397873924976</v>
       </c>
       <c r="M40" t="n">
-        <v>939.7587716342723</v>
+        <v>939.7587716342725</v>
       </c>
       <c r="N40" t="n">
         <v>1248.274409002218</v>
@@ -7363,19 +7363,19 @@
         <v>1533.353277616704</v>
       </c>
       <c r="U40" t="n">
-        <v>1325.649547464464</v>
+        <v>1325.649547464465</v>
       </c>
       <c r="V40" t="n">
         <v>1152.405187149139</v>
       </c>
       <c r="W40" t="n">
-        <v>944.4281450027402</v>
+        <v>944.4281450027405</v>
       </c>
       <c r="X40" t="n">
-        <v>797.8787219952845</v>
+        <v>797.8787219952849</v>
       </c>
       <c r="Y40" t="n">
-        <v>658.5262707423161</v>
+        <v>658.526270742316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.260835062541</v>
+        <v>1865.26083506254</v>
       </c>
       <c r="C41" t="n">
-        <v>1577.738446012691</v>
+        <v>1577.73844601269</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.912875296502</v>
+        <v>1300.912875296501</v>
       </c>
       <c r="E41" t="n">
-        <v>996.5647505888196</v>
+        <v>996.5647505888184</v>
       </c>
       <c r="F41" t="n">
-        <v>667.0189736897737</v>
+        <v>667.0189736897726</v>
       </c>
       <c r="G41" t="n">
-        <v>331.711300487209</v>
+        <v>331.7113004872086</v>
       </c>
       <c r="H41" t="n">
-        <v>98.41014019148668</v>
+        <v>98.41014019148666</v>
       </c>
       <c r="I41" t="n">
         <v>73.26440227953501</v>
       </c>
       <c r="J41" t="n">
-        <v>229.343621452017</v>
+        <v>290.1855125764289</v>
       </c>
       <c r="K41" t="n">
-        <v>675.1969390377845</v>
+        <v>736.0388301621965</v>
       </c>
       <c r="L41" t="n">
-        <v>1280.594032092354</v>
+        <v>927.9513208118199</v>
       </c>
       <c r="M41" t="n">
-        <v>1970.821491120246</v>
+        <v>1618.178779839713</v>
       </c>
       <c r="N41" t="n">
-        <v>2657.585554499989</v>
+        <v>2304.942843219455</v>
       </c>
       <c r="O41" t="n">
         <v>2883.897567932651</v>
@@ -7442,19 +7442,19 @@
         <v>3464.321045435082</v>
       </c>
       <c r="U41" t="n">
-        <v>3292.096668524431</v>
+        <v>3292.09666852443</v>
       </c>
       <c r="V41" t="n">
-        <v>3042.473909071422</v>
+        <v>3042.473909071421</v>
       </c>
       <c r="W41" t="n">
-        <v>2771.145381691869</v>
+        <v>2771.145381691868</v>
       </c>
       <c r="X41" t="n">
-        <v>2479.119751321351</v>
+        <v>2479.11975132135</v>
       </c>
       <c r="Y41" t="n">
-        <v>2170.420547236101</v>
+        <v>2170.4205472361</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>349.3249218471598</v>
       </c>
       <c r="G42" t="n">
-        <v>212.0654299018945</v>
+        <v>212.0654299018944</v>
       </c>
       <c r="H42" t="n">
         <v>112.9062781059935</v>
@@ -7488,25 +7488,25 @@
         <v>73.26440227953501</v>
       </c>
       <c r="J42" t="n">
-        <v>83.93762484398127</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K42" t="n">
-        <v>180.3346869374225</v>
+        <v>566.9853965668801</v>
       </c>
       <c r="L42" t="n">
-        <v>723.4069160639729</v>
+        <v>1110.057625693431</v>
       </c>
       <c r="M42" t="n">
-        <v>1409.125814032747</v>
+        <v>1334.728510549705</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.151713597832</v>
+        <v>1579.75441011479</v>
       </c>
       <c r="O42" t="n">
-        <v>2246.006442890109</v>
+        <v>1920.505633522333</v>
       </c>
       <c r="P42" t="n">
-        <v>2388.740833350862</v>
+        <v>2378.518164936624</v>
       </c>
       <c r="Q42" t="n">
         <v>2631.989643423829</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>558.3179338026381</v>
+        <v>558.317933802638</v>
       </c>
       <c r="C43" t="n">
         <v>470.8218787652928</v>
       </c>
       <c r="D43" t="n">
-        <v>402.1453672435188</v>
+        <v>402.1453672435187</v>
       </c>
       <c r="E43" t="n">
-        <v>335.6724015516873</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F43" t="n">
         <v>270.2225819443386</v>
@@ -7567,7 +7567,7 @@
         <v>73.26440227953501</v>
       </c>
       <c r="J43" t="n">
-        <v>146.1324324905179</v>
+        <v>146.132432490518</v>
       </c>
       <c r="K43" t="n">
         <v>344.3653886538461</v>
@@ -7609,10 +7609,10 @@
         <v>944.4281450027402</v>
       </c>
       <c r="X43" t="n">
-        <v>797.8787219952845</v>
+        <v>797.8787219952844</v>
       </c>
       <c r="Y43" t="n">
-        <v>658.5262707423161</v>
+        <v>658.526270742316</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1300.912875296502</v>
       </c>
       <c r="E44" t="n">
-        <v>996.5647505888196</v>
+        <v>996.5647505888192</v>
       </c>
       <c r="F44" t="n">
-        <v>667.0189736897736</v>
+        <v>667.0189736897732</v>
       </c>
       <c r="G44" t="n">
-        <v>331.7113004872089</v>
+        <v>331.7113004872085</v>
       </c>
       <c r="H44" t="n">
         <v>98.41014019148668</v>
@@ -7649,25 +7649,25 @@
         <v>290.1855125764289</v>
       </c>
       <c r="K44" t="n">
-        <v>736.0388301621964</v>
+        <v>637.7168008826288</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.5753078101</v>
+        <v>1243.113893937198</v>
       </c>
       <c r="M44" t="n">
-        <v>2026.802766837993</v>
+        <v>1933.341352965091</v>
       </c>
       <c r="N44" t="n">
-        <v>2280.593375049871</v>
+        <v>2620.105416344833</v>
       </c>
       <c r="O44" t="n">
-        <v>2883.897567932651</v>
+        <v>3223.409609227614</v>
       </c>
       <c r="P44" t="n">
-        <v>3361.129355714761</v>
+        <v>3382.060675919956</v>
       </c>
       <c r="Q44" t="n">
-        <v>3642.288793771555</v>
+        <v>3663.22011397675</v>
       </c>
       <c r="R44" t="n">
         <v>3663.22011397675</v>
@@ -7676,7 +7676,7 @@
         <v>3596.192513891932</v>
       </c>
       <c r="T44" t="n">
-        <v>3464.321045435083</v>
+        <v>3464.321045435082</v>
       </c>
       <c r="U44" t="n">
         <v>3292.096668524431</v>
@@ -7716,7 +7716,7 @@
         <v>349.3249218471598</v>
       </c>
       <c r="G45" t="n">
-        <v>212.0654299018945</v>
+        <v>212.0654299018944</v>
       </c>
       <c r="H45" t="n">
         <v>112.9062781059935</v>
@@ -7725,19 +7725,19 @@
         <v>73.26440227953501</v>
       </c>
       <c r="J45" t="n">
-        <v>83.93762484398127</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K45" t="n">
-        <v>442.1552715798753</v>
+        <v>566.9853965668801</v>
       </c>
       <c r="L45" t="n">
-        <v>858.9541198086963</v>
+        <v>1110.057625693431</v>
       </c>
       <c r="M45" t="n">
-        <v>1083.625004664971</v>
+        <v>1334.728510549705</v>
       </c>
       <c r="N45" t="n">
-        <v>1328.650904230055</v>
+        <v>1579.75441011479</v>
       </c>
       <c r="O45" t="n">
         <v>1920.505633522333</v>
@@ -7783,13 +7783,13 @@
         <v>558.3179338026381</v>
       </c>
       <c r="C46" t="n">
-        <v>470.8218787652928</v>
+        <v>470.8218787652929</v>
       </c>
       <c r="D46" t="n">
         <v>402.1453672435188</v>
       </c>
       <c r="E46" t="n">
-        <v>335.6724015516873</v>
+        <v>335.6724015516874</v>
       </c>
       <c r="F46" t="n">
         <v>270.2225819443386</v>
@@ -7807,13 +7807,13 @@
         <v>146.1324324905179</v>
       </c>
       <c r="K46" t="n">
-        <v>344.3653886538461</v>
+        <v>344.3653886538456</v>
       </c>
       <c r="L46" t="n">
-        <v>631.2397873924976</v>
+        <v>631.2397873924972</v>
       </c>
       <c r="M46" t="n">
-        <v>939.7587716342728</v>
+        <v>939.7587716342723</v>
       </c>
       <c r="N46" t="n">
         <v>1248.274409002218</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>142.2677508105495</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>405.0501108334611</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>201.4182768215967</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>44.57367219096753</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>262.9598998755275</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         <v>425.7957431705461</v>
       </c>
       <c r="N12" t="n">
-        <v>400.4237381917632</v>
+        <v>405.2351222525559</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>405.0501108334611</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>103.060013123162</v>
+        <v>201.4182768215967</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>44.57367219096753</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.9936551547619</v>
+        <v>140.2224143426546</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>445.8827295242004</v>
+        <v>445.8827295241999</v>
       </c>
       <c r="N17" t="n">
-        <v>437.2144998859279</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>206.7014854842015</v>
+        <v>241.3616318561338</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>44.57367219096753</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>446.0677409432952</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.5459383781328</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>445.8827295242004</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>363.0989488091691</v>
       </c>
       <c r="P20" t="n">
-        <v>203.5029064468881</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>44.57367219096753</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>168.6971981477869</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>446.0677409432952</v>
+        <v>140.2224143426545</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>445.8827295242006</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.441515228438845</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>202.7653187379819</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>44.5736721909675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>203.0574069684416</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>176.3535117209363</v>
+        <v>28.39964423087818</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>44.5736721909675</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>369.8990809920254</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.6401594908496</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,13 +10118,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>28.39964423087721</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>44.5736721909675</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>157.8114206429691</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>224.8302314806919</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>262.6889568899405</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>44.5736721909675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>45.35769589611385</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>28.39964423087631</v>
       </c>
       <c r="N35" t="n">
-        <v>375.8904687307581</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>44.5736721909675</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>363.8204645360511</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>224.8302314806915</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>7.256896548862954</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>44.5736721909675</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>180.0354329951707</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>107.6401594908496</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>356.2047588692259</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.7513600446992</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>224.8302314806923</v>
       </c>
       <c r="L44" t="n">
-        <v>412.7515020184653</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>44.5736721909675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2914757097931</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>140.2224143426544</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>322.9080803277992</v>
       </c>
       <c r="C11" t="n">
-        <v>305.4471304353262</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>294.8572802850016</v>
       </c>
       <c r="E11" t="n">
-        <v>322.1046087365805</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>347.0502844060302</v>
+        <v>347.0502844060301</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>352.7545617465137</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>45.69424580880693</v>
+        <v>15.34743822166683</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.716036257481317</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>309.9053393427878</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>86.60820131088789</v>
+        <v>86.60820131088779</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.55887399069142</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>216.9677288524219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.3118819881466</v>
       </c>
       <c r="W13" t="n">
-        <v>226.6972370009097</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>120.0234998489701</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>322.9080803277993</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>305.4471304353262</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>294.8572802850017</v>
+        <v>294.8572802850016</v>
       </c>
       <c r="E14" t="n">
-        <v>322.1046087365805</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>87.60054520230482</v>
+        <v>352.7545617465137</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>251.7681139687394</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>45.69424580880683</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>87.15728935994457</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>109.3840554004858</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>191.3020984175199</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.006218846256</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>88.78971168253108</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8.3429730282854</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.9020530534019</v>
       </c>
       <c r="U16" t="n">
-        <v>226.4266581266922</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>60.66522349597957</v>
+        <v>165.8838940533558</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>158.7588920164134</v>
       </c>
     </row>
     <row r="17">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1279397.463001273</v>
+        <v>1279397.463001274</v>
       </c>
     </row>
     <row r="6">
@@ -26314,43 +26314,43 @@
         <v>20481.90846792596</v>
       </c>
       <c r="C2" t="n">
-        <v>20481.90846792596</v>
+        <v>20481.90846792595</v>
       </c>
       <c r="D2" t="n">
         <v>20481.90846792596</v>
       </c>
       <c r="E2" t="n">
-        <v>17576.00544579206</v>
+        <v>17576.00544579205</v>
       </c>
       <c r="F2" t="n">
         <v>17576.00544579206</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="H2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660711</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660712</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660711</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>786818.2134673273</v>
+        <v>786818.2134673274</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>75692.18958317611</v>
+        <v>75692.18958317599</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>58146.81512072622</v>
+        <v>58146.8151207264</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64500.58128932483</v>
+        <v>64500.58128932484</v>
       </c>
       <c r="M3" t="n">
-        <v>162664.4298454393</v>
+        <v>162664.4298454394</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9826.410520545105</v>
+        <v>9826.410520545051</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>127623.8435131887</v>
+        <v>127623.8435131888</v>
       </c>
       <c r="F4" t="n">
-        <v>127623.8435131887</v>
+        <v>127623.8435131888</v>
       </c>
       <c r="G4" t="n">
-        <v>192153.9731338958</v>
+        <v>192153.9731338959</v>
       </c>
       <c r="H4" t="n">
         <v>192153.9731338959</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>59478.81547492726</v>
+        <v>59478.81547492727</v>
       </c>
       <c r="F5" t="n">
-        <v>59478.81547492726</v>
+        <v>59478.81547492727</v>
       </c>
       <c r="G5" t="n">
-        <v>68739.56290183953</v>
+        <v>68739.5629018395</v>
       </c>
       <c r="H5" t="n">
-        <v>68739.56290183953</v>
+        <v>68739.5629018395</v>
       </c>
       <c r="I5" t="n">
-        <v>68739.56290183953</v>
+        <v>68739.5629018395</v>
       </c>
       <c r="J5" t="n">
         <v>77222.04280918707</v>
@@ -26500,7 +26500,7 @@
         <v>77222.04280918706</v>
       </c>
       <c r="M5" t="n">
-        <v>77222.04280918703</v>
+        <v>77222.04280918706</v>
       </c>
       <c r="N5" t="n">
         <v>77222.04280918706</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433293.4604216053</v>
+        <v>-433297.8739994734</v>
       </c>
       <c r="C6" t="n">
-        <v>-433293.4604216053</v>
+        <v>-433297.8739994734</v>
       </c>
       <c r="D6" t="n">
-        <v>-433293.4604216053</v>
+        <v>-433297.8739994734</v>
       </c>
       <c r="E6" t="n">
-        <v>-956344.8670096511</v>
+        <v>-956639.8708897328</v>
       </c>
       <c r="F6" t="n">
-        <v>-169526.6535423239</v>
+        <v>-169821.6574224055</v>
       </c>
       <c r="G6" t="n">
-        <v>-316059.6813723044</v>
+        <v>-316059.6813723043</v>
       </c>
       <c r="H6" t="n">
         <v>-240367.4917891283</v>
@@ -26543,25 +26543,25 @@
         <v>-240367.4917891283</v>
       </c>
       <c r="J6" t="n">
-        <v>-292630.6295521033</v>
+        <v>-292630.6295521035</v>
       </c>
       <c r="K6" t="n">
-        <v>-234483.8144313771</v>
+        <v>-234483.814431377</v>
       </c>
       <c r="L6" t="n">
         <v>-298984.3957207019</v>
       </c>
       <c r="M6" t="n">
-        <v>-397148.2442768163</v>
+        <v>-397148.2442768165</v>
       </c>
       <c r="N6" t="n">
-        <v>-234483.8144313772</v>
+        <v>-234483.814431377</v>
       </c>
       <c r="O6" t="n">
-        <v>-244310.2249519222</v>
+        <v>-244310.2249519221</v>
       </c>
       <c r="P6" t="n">
-        <v>-234483.8144313771</v>
+        <v>-234483.814431377</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="F2" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="G2" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H2" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I2" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="J2" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="K2" t="n">
         <v>80.62572661165605</v>
@@ -26716,7 +26716,7 @@
         <v>80.62572661165605</v>
       </c>
       <c r="M2" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="N2" t="n">
         <v>80.62572661165605</v>
@@ -26725,7 +26725,7 @@
         <v>80.62572661165605</v>
       </c>
       <c r="P2" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="F3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="G3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="H3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="I3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="J3" t="n">
         <v>677.2005901938144</v>
       </c>
       <c r="K3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="L3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="M3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="N3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="O3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="P3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
     </row>
     <row r="4">
@@ -26802,13 +26802,13 @@
         <v>652.7360309041566</v>
       </c>
       <c r="G4" t="n">
-        <v>693.5686495948959</v>
+        <v>693.5686495948954</v>
       </c>
       <c r="H4" t="n">
-        <v>693.5686495948959</v>
+        <v>693.5686495948954</v>
       </c>
       <c r="I4" t="n">
-        <v>693.5686495948961</v>
+        <v>693.5686495948954</v>
       </c>
       <c r="J4" t="n">
         <v>915.8050284941876</v>
@@ -26817,13 +26817,13 @@
         <v>915.8050284941875</v>
       </c>
       <c r="L4" t="n">
-        <v>915.8050284941875</v>
+        <v>915.8050284941874</v>
       </c>
       <c r="M4" t="n">
-        <v>915.805028494187</v>
+        <v>915.8050284941872</v>
       </c>
       <c r="N4" t="n">
-        <v>915.8050284941875</v>
+        <v>915.8050284941872</v>
       </c>
       <c r="O4" t="n">
         <v>915.8050284941875</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.2005901938144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.83261869073931</v>
+        <v>40.83261869073885</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>222.2363788992915</v>
+        <v>222.2363788992922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.7360309041561</v>
+        <v>652.7360309041565</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.83261869073931</v>
+        <v>40.83261869073908</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.83261869073931</v>
+        <v>40.83261869073885</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="C11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="D11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="E11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="F11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="G11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="H11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="I11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="T11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="U11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="V11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="W11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="X11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="C13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="D13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="E13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="F13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="G13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="H13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="I13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="J13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="K13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="L13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="M13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="N13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="O13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="P13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="R13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="S13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="T13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="U13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="V13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="W13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="X13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="C14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="D14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="E14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="F14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="G14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="H14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="I14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="T14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="U14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="V14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="W14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="X14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="C16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="D16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="E16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="F16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="G16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="H16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="I16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="J16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="K16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="L16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="M16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="N16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="O16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="P16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="R16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="S16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="T16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="U16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="V16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="W16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="X16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.82576133568128</v>
+        <v>59.82576133568138</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I17" t="n">
         <v>105.5200071444882</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y17" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C19" t="n">
-        <v>129.2226755423569</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I19" t="n">
         <v>118.7262199705183</v>
       </c>
       <c r="J19" t="n">
-        <v>7.021655691471253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,22 +28773,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>140.4514879473373</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>140.4514879473373</v>
+        <v>136.2443312338265</v>
       </c>
       <c r="V19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I20" t="n">
         <v>105.5200071444882</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y20" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D22" t="n">
-        <v>140.4514879473373</v>
+        <v>136.2443312338266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G22" t="n">
-        <v>140.4514879473373</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I22" t="n">
         <v>118.7262199705183</v>
       </c>
       <c r="J22" t="n">
-        <v>7.021655691471253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.3846353263727</v>
       </c>
       <c r="S22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U22" t="n">
-        <v>129.2226755423569</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I23" t="n">
         <v>105.5200071444882</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y23" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E25" t="n">
-        <v>111.155822921392</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4514879473373</v>
+        <v>136.2443312338265</v>
       </c>
       <c r="I25" t="n">
         <v>118.7262199705183</v>
       </c>
       <c r="J25" t="n">
-        <v>7.021655691471253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.3846353263727</v>
       </c>
       <c r="S25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T25" t="n">
-        <v>140.4514879473373</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W25" t="n">
-        <v>140.4514879473373</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.4514879473373</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="C26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="D26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="E26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="F26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="G26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="H26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="I26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="T26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="U26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="V26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="W26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="X26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="C28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="D28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="E28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="F28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="G28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="H28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="I28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="J28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="K28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="L28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="M28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="N28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="O28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="P28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="R28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="S28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="T28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="U28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="V28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="W28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="X28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165605</v>
       </c>
     </row>
     <row r="29">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="C35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="D35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="E35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="F35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="G35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="H35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="I35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="T35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="U35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="V35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="W35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="X35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="C37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="D37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="E37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="F37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="G37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="H37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="I37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="J37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165534</v>
       </c>
       <c r="K37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="L37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="M37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="N37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="O37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="P37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="R37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="S37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="T37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="U37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="V37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="W37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="X37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165605</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>80.62572661165605</v>
       </c>
       <c r="J40" t="n">
-        <v>80.62572661165561</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="K40" t="n">
         <v>80.62572661165605</v>
@@ -30651,13 +30651,13 @@
         <v>80.62572661165605</v>
       </c>
       <c r="N43" t="n">
-        <v>80.62572661165558</v>
+        <v>80.62572661165605</v>
       </c>
       <c r="O43" t="n">
         <v>80.62572661165605</v>
       </c>
       <c r="P43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165538</v>
       </c>
       <c r="Q43" t="n">
         <v>80.62572661165605</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="C44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="D44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="E44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="F44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="G44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="H44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="I44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="T44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="U44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="V44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="W44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="X44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="C46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="D46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="E46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="F46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="G46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="H46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="I46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="J46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="K46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165555</v>
       </c>
       <c r="L46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="M46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="N46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="O46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="P46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.62572661165571</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="R46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="S46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="T46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="U46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="V46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="W46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="X46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165603</v>
       </c>
     </row>
   </sheetData>
@@ -31762,19 +31762,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K11" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L11" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M11" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N11" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O11" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P11" t="n">
         <v>391.486598474807</v>
@@ -31786,13 +31786,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S11" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T11" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I12" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J12" t="n">
         <v>137.6186595600468</v>
@@ -31844,34 +31844,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L12" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M12" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N12" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O12" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P12" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q12" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R12" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S12" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T12" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,13 +31914,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I13" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J13" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K13" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L13" t="n">
         <v>181.5563680660597</v>
@@ -31929,7 +31929,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N13" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O13" t="n">
         <v>172.6084389562857</v>
@@ -31938,19 +31938,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R13" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S13" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T13" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31999,19 +31999,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K14" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L14" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M14" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N14" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O14" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P14" t="n">
         <v>391.486598474807</v>
@@ -32023,13 +32023,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S14" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T14" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I15" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J15" t="n">
         <v>137.6186595600468</v>
@@ -32081,34 +32081,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L15" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M15" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N15" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O15" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P15" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q15" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R15" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S15" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T15" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,13 +32151,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I16" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J16" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K16" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L16" t="n">
         <v>181.5563680660597</v>
@@ -32166,7 +32166,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N16" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O16" t="n">
         <v>172.6084389562857</v>
@@ -32175,19 +32175,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R16" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S16" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T16" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32236,19 +32236,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K17" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L17" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M17" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N17" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O17" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P17" t="n">
         <v>391.486598474807</v>
@@ -32260,13 +32260,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S17" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T17" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I18" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J18" t="n">
         <v>137.6186595600468</v>
@@ -32318,34 +32318,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L18" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M18" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N18" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O18" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P18" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q18" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R18" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S18" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T18" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,13 +32388,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I19" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J19" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K19" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L19" t="n">
         <v>181.5563680660597</v>
@@ -32403,7 +32403,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N19" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O19" t="n">
         <v>172.6084389562857</v>
@@ -32412,19 +32412,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R19" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S19" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T19" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32473,19 +32473,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K20" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L20" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M20" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N20" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O20" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P20" t="n">
         <v>391.486598474807</v>
@@ -32497,13 +32497,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S20" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T20" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I21" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J21" t="n">
         <v>137.6186595600468</v>
@@ -32555,34 +32555,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L21" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M21" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N21" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O21" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P21" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q21" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R21" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S21" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T21" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,13 +32625,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I22" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J22" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K22" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L22" t="n">
         <v>181.5563680660597</v>
@@ -32640,7 +32640,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N22" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O22" t="n">
         <v>172.6084389562857</v>
@@ -32649,19 +32649,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R22" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S22" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T22" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,19 +32710,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K23" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L23" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M23" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N23" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O23" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P23" t="n">
         <v>391.486598474807</v>
@@ -32734,13 +32734,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S23" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T23" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I24" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J24" t="n">
         <v>137.6186595600468</v>
@@ -32792,34 +32792,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L24" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M24" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N24" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O24" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P24" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q24" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R24" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S24" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T24" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,13 +32862,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I25" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J25" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K25" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L25" t="n">
         <v>181.5563680660597</v>
@@ -32877,7 +32877,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N25" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O25" t="n">
         <v>172.6084389562857</v>
@@ -32886,19 +32886,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R25" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S25" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T25" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33184,19 +33184,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K29" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L29" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M29" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N29" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O29" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P29" t="n">
         <v>391.486598474807</v>
@@ -33208,13 +33208,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S29" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T29" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I30" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J30" t="n">
         <v>137.6186595600468</v>
@@ -33266,34 +33266,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L30" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M30" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N30" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O30" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P30" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q30" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R30" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S30" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T30" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,13 +33336,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I31" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J31" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K31" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L31" t="n">
         <v>181.5563680660597</v>
@@ -33351,7 +33351,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N31" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O31" t="n">
         <v>172.6084389562857</v>
@@ -33360,19 +33360,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R31" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S31" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T31" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33421,19 +33421,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K32" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M32" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N32" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O32" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P32" t="n">
         <v>391.486598474807</v>
@@ -33445,13 +33445,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S32" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T32" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I33" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J33" t="n">
         <v>137.6186595600468</v>
@@ -33503,34 +33503,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L33" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M33" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N33" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O33" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P33" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q33" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R33" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S33" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T33" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,13 +33573,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I34" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J34" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K34" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L34" t="n">
         <v>181.5563680660597</v>
@@ -33588,7 +33588,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N34" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O34" t="n">
         <v>172.6084389562857</v>
@@ -33597,19 +33597,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R34" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S34" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T34" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33658,19 +33658,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K35" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L35" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M35" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N35" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O35" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P35" t="n">
         <v>391.486598474807</v>
@@ -33682,13 +33682,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S35" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T35" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I36" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J36" t="n">
         <v>137.6186595600468</v>
@@ -33740,34 +33740,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L36" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M36" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N36" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O36" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P36" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q36" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R36" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S36" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T36" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,13 +33810,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I37" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J37" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K37" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L37" t="n">
         <v>181.5563680660597</v>
@@ -33825,7 +33825,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N37" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O37" t="n">
         <v>172.6084389562857</v>
@@ -33834,19 +33834,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R37" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S37" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T37" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33895,19 +33895,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K38" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L38" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M38" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N38" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O38" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P38" t="n">
         <v>391.486598474807</v>
@@ -33919,13 +33919,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S38" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T38" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I39" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J39" t="n">
         <v>137.6186595600468</v>
@@ -33977,34 +33977,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L39" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M39" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N39" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O39" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P39" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q39" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R39" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S39" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T39" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,13 +34047,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I40" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J40" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K40" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L40" t="n">
         <v>181.5563680660597</v>
@@ -34062,7 +34062,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N40" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O40" t="n">
         <v>172.6084389562857</v>
@@ -34071,19 +34071,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R40" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S40" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T40" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,19 +34132,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K41" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L41" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M41" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N41" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O41" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P41" t="n">
         <v>391.486598474807</v>
@@ -34156,13 +34156,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S41" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T41" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I42" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J42" t="n">
         <v>137.6186595600468</v>
@@ -34214,34 +34214,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L42" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M42" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N42" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O42" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P42" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q42" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R42" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S42" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T42" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,13 +34284,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I43" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J43" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K43" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L43" t="n">
         <v>181.5563680660597</v>
@@ -34299,7 +34299,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N43" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O43" t="n">
         <v>172.6084389562857</v>
@@ -34308,19 +34308,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R43" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S43" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T43" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,19 +34369,19 @@
         <v>231.0615219777377</v>
       </c>
       <c r="K44" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240861</v>
       </c>
       <c r="L44" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261724</v>
       </c>
       <c r="M44" t="n">
-        <v>478.0321532979682</v>
+        <v>478.0321532979683</v>
       </c>
       <c r="N44" t="n">
         <v>485.7672133055589</v>
       </c>
       <c r="O44" t="n">
-        <v>458.6962047880122</v>
+        <v>458.6962047880123</v>
       </c>
       <c r="P44" t="n">
         <v>391.486598474807</v>
@@ -34393,13 +34393,13 @@
         <v>171.0118656231646</v>
       </c>
       <c r="S44" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061929</v>
       </c>
       <c r="T44" t="n">
         <v>11.91736918019466</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351964</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>14.06788395855452</v>
       </c>
       <c r="I45" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322117</v>
       </c>
       <c r="J45" t="n">
         <v>137.6186595600468</v>
@@ -34451,34 +34451,34 @@
         <v>235.2122087657138</v>
       </c>
       <c r="L45" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749508</v>
       </c>
       <c r="M45" t="n">
         <v>369.0743216556288</v>
       </c>
       <c r="N45" t="n">
-        <v>378.8426207349339</v>
+        <v>378.842620734934</v>
       </c>
       <c r="O45" t="n">
         <v>346.5669850589042</v>
       </c>
       <c r="P45" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948896</v>
       </c>
       <c r="Q45" t="n">
         <v>185.9362828018941</v>
       </c>
       <c r="R45" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221494</v>
       </c>
       <c r="S45" t="n">
         <v>27.05608018368681</v>
       </c>
       <c r="T45" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284105</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723793</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,13 +34521,13 @@
         <v>10.85741274114018</v>
       </c>
       <c r="I46" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673998</v>
       </c>
       <c r="J46" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520154</v>
       </c>
       <c r="K46" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701139</v>
       </c>
       <c r="L46" t="n">
         <v>181.5563680660597</v>
@@ -34536,7 +34536,7 @@
         <v>191.425734044458</v>
       </c>
       <c r="N46" t="n">
-        <v>186.8740579464341</v>
+        <v>186.8740579464342</v>
       </c>
       <c r="O46" t="n">
         <v>172.6084389562857</v>
@@ -34545,19 +34545,19 @@
         <v>147.6963385563689</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.2572891192659</v>
+        <v>102.257289119266</v>
       </c>
       <c r="R46" t="n">
-        <v>54.90875605079679</v>
+        <v>54.9087560507968</v>
       </c>
       <c r="S46" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051708</v>
       </c>
       <c r="T46" t="n">
-        <v>5.217775039198239</v>
+        <v>5.21777503919824</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742443</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01561745105141</v>
+        <v>219.1122326231252</v>
       </c>
       <c r="K11" t="n">
-        <v>126.2114738791055</v>
+        <v>450.3568864502703</v>
       </c>
       <c r="L11" t="n">
-        <v>336.1187514667345</v>
+        <v>193.8510006561851</v>
       </c>
       <c r="M11" t="n">
-        <v>652.7360309041566</v>
+        <v>247.6859200706955</v>
       </c>
       <c r="N11" t="n">
         <v>256.354149708968</v>
       </c>
       <c r="O11" t="n">
-        <v>609.3981746290708</v>
+        <v>430.0162701879223</v>
       </c>
       <c r="P11" t="n">
         <v>482.0523108910201</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.68444172069528</v>
+        <v>283.9994323806</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>21.14274768201494</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.78103289338006</v>
+        <v>136.8720682337889</v>
       </c>
       <c r="K12" t="n">
-        <v>97.3707697913548</v>
+        <v>360.3306696668824</v>
       </c>
       <c r="L12" t="n">
         <v>177.7174618950766</v>
@@ -35498,10 +35498,10 @@
         <v>652.7360309041566</v>
       </c>
       <c r="N12" t="n">
-        <v>647.9246468433638</v>
+        <v>652.7360309041566</v>
       </c>
       <c r="O12" t="n">
-        <v>597.8330598911892</v>
+        <v>203.9707406144598</v>
       </c>
       <c r="P12" t="n">
         <v>144.1761519805593</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.80410564421003</v>
+        <v>52.80410564421014</v>
       </c>
       <c r="K13" t="n">
-        <v>179.4353439799123</v>
+        <v>179.4353439799124</v>
       </c>
       <c r="L13" t="n">
-        <v>268.9721546620571</v>
+        <v>268.9721546620572</v>
       </c>
       <c r="M13" t="n">
-        <v>290.8353723419798</v>
+        <v>290.83537234198</v>
       </c>
       <c r="N13" t="n">
-        <v>290.831991661344</v>
+        <v>290.8319916613441</v>
       </c>
       <c r="O13" t="n">
-        <v>257.0193282060067</v>
+        <v>257.0193282060068</v>
       </c>
       <c r="P13" t="n">
-        <v>204.8006591569436</v>
+        <v>204.8006591569438</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.92100720325284</v>
+        <v>75.92100720325296</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01561745105141</v>
+        <v>219.1122326231252</v>
       </c>
       <c r="K14" t="n">
-        <v>450.3568864502702</v>
+        <v>450.3568864502703</v>
       </c>
       <c r="L14" t="n">
-        <v>611.5122152066355</v>
+        <v>193.8510006561851</v>
       </c>
       <c r="M14" t="n">
-        <v>652.7360309041566</v>
+        <v>247.6859200706955</v>
       </c>
       <c r="N14" t="n">
         <v>256.354149708968</v>
       </c>
       <c r="O14" t="n">
-        <v>331.6580064894874</v>
+        <v>430.0162701879223</v>
       </c>
       <c r="P14" t="n">
-        <v>160.2536027195374</v>
+        <v>482.0523108910201</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.68444172069528</v>
+        <v>283.9994323806</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21.14274768201494</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10.78103289338006</v>
+        <v>136.8720682337889</v>
       </c>
       <c r="K15" t="n">
-        <v>97.3707697913548</v>
+        <v>361.8360068039334</v>
       </c>
       <c r="L15" t="n">
         <v>548.5578071985358</v>
       </c>
       <c r="M15" t="n">
-        <v>573.9339428883724</v>
+        <v>367.1627020762651</v>
       </c>
       <c r="N15" t="n">
-        <v>247.5009086516006</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O15" t="n">
-        <v>597.8330598911892</v>
+        <v>203.9707406144598</v>
       </c>
       <c r="P15" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.95450871587258</v>
+        <v>256.0317964517217</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.80410564421003</v>
+        <v>52.80410564421014</v>
       </c>
       <c r="K16" t="n">
-        <v>179.4353439799123</v>
+        <v>179.4353439799124</v>
       </c>
       <c r="L16" t="n">
-        <v>268.9721546620571</v>
+        <v>268.9721546620572</v>
       </c>
       <c r="M16" t="n">
-        <v>290.8353723419798</v>
+        <v>290.83537234198</v>
       </c>
       <c r="N16" t="n">
-        <v>290.831991661344</v>
+        <v>290.8319916613441</v>
       </c>
       <c r="O16" t="n">
-        <v>257.0193282060067</v>
+        <v>257.0193282060068</v>
       </c>
       <c r="P16" t="n">
-        <v>204.8006591569436</v>
+        <v>204.8006591569438</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.92100720325284</v>
+        <v>75.92100720325296</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01561745105141</v>
+        <v>219.1122326231252</v>
       </c>
       <c r="K17" t="n">
         <v>126.2114738791055</v>
       </c>
       <c r="L17" t="n">
-        <v>193.851000656185</v>
+        <v>193.8510006561851</v>
       </c>
       <c r="M17" t="n">
-        <v>693.5686495948959</v>
+        <v>693.5686495948954</v>
       </c>
       <c r="N17" t="n">
-        <v>693.5686495948959</v>
+        <v>256.354149708968</v>
       </c>
       <c r="O17" t="n">
-        <v>435.299478850527</v>
+        <v>469.9596252224594</v>
       </c>
       <c r="P17" t="n">
         <v>482.0523108910201</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.68444172069528</v>
+        <v>283.9994323806</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>21.14274768201494</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.78103289338006</v>
+        <v>136.8720682337889</v>
       </c>
       <c r="K18" t="n">
-        <v>97.3707697913548</v>
+        <v>361.8360068039334</v>
       </c>
       <c r="L18" t="n">
         <v>548.5578071985358</v>
       </c>
       <c r="M18" t="n">
-        <v>692.6453514836103</v>
+        <v>226.9402877336105</v>
       </c>
       <c r="N18" t="n">
-        <v>693.5686495948959</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O18" t="n">
-        <v>203.9707406144597</v>
+        <v>344.1931549571141</v>
       </c>
       <c r="P18" t="n">
-        <v>144.1761519805593</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q18" t="n">
-        <v>193.5004470940054</v>
+        <v>256.0317964517217</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,16 +36051,16 @@
         <v>231.0096110062986</v>
       </c>
       <c r="N19" t="n">
-        <v>231.0062303256627</v>
+        <v>231.0062303256628</v>
       </c>
       <c r="O19" t="n">
         <v>197.1935668703254</v>
       </c>
       <c r="P19" t="n">
-        <v>144.9748978212623</v>
+        <v>144.9748978212624</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.09524586757156</v>
+        <v>16.09524586757158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>219.1122326231252</v>
       </c>
       <c r="K20" t="n">
-        <v>126.2114738791055</v>
+        <v>450.3568864502703</v>
       </c>
       <c r="L20" t="n">
-        <v>193.851000656185</v>
+        <v>193.8510006561851</v>
       </c>
       <c r="M20" t="n">
-        <v>693.5686495948959</v>
+        <v>247.6859200706955</v>
       </c>
       <c r="N20" t="n">
         <v>256.354149708968</v>
       </c>
       <c r="O20" t="n">
-        <v>609.3981746290708</v>
+        <v>591.6969421754947</v>
       </c>
       <c r="P20" t="n">
-        <v>363.7565091664255</v>
+        <v>482.0523108910201</v>
       </c>
       <c r="Q20" t="n">
         <v>283.9994323806</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>21.14274768201494</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>136.8720682337889</v>
       </c>
       <c r="K21" t="n">
-        <v>266.0679679391417</v>
+        <v>361.8360068039334</v>
       </c>
       <c r="L21" t="n">
         <v>548.5578071985358</v>
       </c>
       <c r="M21" t="n">
-        <v>226.9402877336104</v>
+        <v>226.9402877336105</v>
       </c>
       <c r="N21" t="n">
-        <v>693.5686495948959</v>
+        <v>387.7233229942552</v>
       </c>
       <c r="O21" t="n">
-        <v>203.9707406144597</v>
+        <v>203.9707406144598</v>
       </c>
       <c r="P21" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.95450871587258</v>
+        <v>256.0317964517217</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>231.0096110062986</v>
       </c>
       <c r="N22" t="n">
-        <v>231.0062303256627</v>
+        <v>231.0062303256628</v>
       </c>
       <c r="O22" t="n">
         <v>197.1935668703254</v>
       </c>
       <c r="P22" t="n">
-        <v>144.9748978212623</v>
+        <v>144.9748978212624</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.09524586757156</v>
+        <v>16.09524586757158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01561745105141</v>
+        <v>219.1122326231252</v>
       </c>
       <c r="K23" t="n">
-        <v>450.3568864502702</v>
+        <v>450.3568864502703</v>
       </c>
       <c r="L23" t="n">
-        <v>611.5122152066355</v>
+        <v>193.8510006561851</v>
       </c>
       <c r="M23" t="n">
-        <v>693.5686495948961</v>
+        <v>247.6859200706955</v>
       </c>
       <c r="N23" t="n">
-        <v>256.354149708968</v>
+        <v>259.7956649374069</v>
       </c>
       <c r="O23" t="n">
-        <v>228.5979933663254</v>
+        <v>609.3981746290709</v>
       </c>
       <c r="P23" t="n">
-        <v>363.0189214575193</v>
+        <v>482.0523108910201</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.68444172069528</v>
+        <v>283.9994323806</v>
       </c>
       <c r="R23" t="n">
-        <v>21.14274768201491</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>548.5578071985358</v>
       </c>
       <c r="M24" t="n">
-        <v>692.6453514836103</v>
+        <v>367.1627020762649</v>
       </c>
       <c r="N24" t="n">
-        <v>247.5009086516006</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O24" t="n">
-        <v>407.0281475829013</v>
+        <v>203.9707406144598</v>
       </c>
       <c r="P24" t="n">
-        <v>144.1761519805593</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.95450871587258</v>
+        <v>256.0317964517217</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>231.0096110062986</v>
       </c>
       <c r="N25" t="n">
-        <v>231.0062303256627</v>
+        <v>231.0062303256628</v>
       </c>
       <c r="O25" t="n">
         <v>197.1935668703254</v>
       </c>
       <c r="P25" t="n">
-        <v>144.9748978212623</v>
+        <v>144.9748978212624</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.09524586757156</v>
+        <v>16.09524586757158</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>50.01561745105144</v>
+        <v>219.1122326231252</v>
       </c>
       <c r="K26" t="n">
         <v>450.3568864502703</v>
@@ -36601,7 +36601,7 @@
         <v>611.5122152066356</v>
       </c>
       <c r="M26" t="n">
-        <v>424.0394317916318</v>
+        <v>276.0855643015737</v>
       </c>
       <c r="N26" t="n">
         <v>693.7010741209522</v>
@@ -36616,7 +36616,7 @@
         <v>283.9994323806</v>
       </c>
       <c r="R26" t="n">
-        <v>21.14274768201494</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.78103289338009</v>
+        <v>136.8720682337889</v>
       </c>
       <c r="K27" t="n">
-        <v>97.37076979135483</v>
+        <v>361.8360068039334</v>
       </c>
       <c r="L27" t="n">
         <v>548.5578071985358</v>
       </c>
       <c r="M27" t="n">
-        <v>226.9402877336105</v>
+        <v>367.1627020762649</v>
       </c>
       <c r="N27" t="n">
-        <v>726.8432829951541</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O27" t="n">
-        <v>573.8698216064852</v>
+        <v>203.9707406144598</v>
       </c>
       <c r="P27" t="n">
-        <v>144.1761519805593</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q27" t="n">
         <v>256.0317964517217</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.6040709201848</v>
+        <v>73.60407092018481</v>
       </c>
       <c r="K28" t="n">
         <v>200.235309255887</v>
@@ -36771,7 +36771,7 @@
         <v>225.6006244329184</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.72097247922761</v>
+        <v>96.72097247922763</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.6557769419011</v>
+        <v>219.1122326231252</v>
       </c>
       <c r="K29" t="n">
-        <v>450.3568864502702</v>
+        <v>450.3568864502703</v>
       </c>
       <c r="L29" t="n">
-        <v>611.5122152066355</v>
+        <v>611.5122152066356</v>
       </c>
       <c r="M29" t="n">
-        <v>697.199453563528</v>
+        <v>276.0855643015727</v>
       </c>
       <c r="N29" t="n">
         <v>693.7010741209522</v>
       </c>
       <c r="O29" t="n">
-        <v>228.5979933663254</v>
+        <v>609.3981746290709</v>
       </c>
       <c r="P29" t="n">
         <v>482.0523108910201</v>
@@ -36853,7 +36853,7 @@
         <v>283.9994323806</v>
       </c>
       <c r="R29" t="n">
-        <v>21.14274768201491</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.78103289338006</v>
+        <v>136.8720682337889</v>
       </c>
       <c r="K30" t="n">
         <v>361.8360068039334</v>
       </c>
       <c r="L30" t="n">
-        <v>335.5288825380457</v>
+        <v>548.5578071985358</v>
       </c>
       <c r="M30" t="n">
-        <v>226.9402877336104</v>
+        <v>226.9402877336105</v>
       </c>
       <c r="N30" t="n">
-        <v>726.8432829951541</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O30" t="n">
-        <v>203.9707406144597</v>
+        <v>344.1931549571141</v>
       </c>
       <c r="P30" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q30" t="n">
         <v>256.0317964517217</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.6040709201848</v>
+        <v>73.60407092018481</v>
       </c>
       <c r="K31" t="n">
         <v>200.235309255887</v>
       </c>
       <c r="L31" t="n">
-        <v>289.7721199380318</v>
+        <v>289.7721199380319</v>
       </c>
       <c r="M31" t="n">
         <v>311.6353376179546</v>
@@ -37008,7 +37008,7 @@
         <v>225.6006244329184</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.72097247922761</v>
+        <v>96.72097247922763</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>219.1122326231252</v>
       </c>
       <c r="K32" t="n">
-        <v>126.2114738791055</v>
+        <v>351.0417053597974</v>
       </c>
       <c r="L32" t="n">
-        <v>611.5122152066355</v>
+        <v>611.5122152066356</v>
       </c>
       <c r="M32" t="n">
         <v>697.199453563528</v>
@@ -37081,16 +37081,16 @@
         <v>693.7010741209522</v>
       </c>
       <c r="O32" t="n">
-        <v>491.286950256266</v>
+        <v>609.3981746290709</v>
       </c>
       <c r="P32" t="n">
-        <v>482.0523108910201</v>
+        <v>160.2536027195375</v>
       </c>
       <c r="Q32" t="n">
         <v>283.9994323806</v>
       </c>
       <c r="R32" t="n">
-        <v>21.14274768201491</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>361.8360068039334</v>
       </c>
       <c r="L33" t="n">
-        <v>223.0751577911904</v>
+        <v>548.5578071985358</v>
       </c>
       <c r="M33" t="n">
-        <v>692.6453514836103</v>
+        <v>367.1627020762649</v>
       </c>
       <c r="N33" t="n">
-        <v>247.5009086516006</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O33" t="n">
-        <v>203.9707406144597</v>
+        <v>203.9707406144598</v>
       </c>
       <c r="P33" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q33" t="n">
         <v>256.0317964517217</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.6040709201848</v>
+        <v>73.60407092018481</v>
       </c>
       <c r="K34" t="n">
         <v>200.235309255887</v>
       </c>
       <c r="L34" t="n">
-        <v>289.7721199380318</v>
+        <v>289.7721199380319</v>
       </c>
       <c r="M34" t="n">
         <v>311.6353376179546</v>
@@ -37245,7 +37245,7 @@
         <v>225.6006244329184</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.72097247922761</v>
+        <v>96.72097247922763</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>219.1122326231252</v>
       </c>
       <c r="K35" t="n">
-        <v>450.3568864502702</v>
+        <v>450.3568864502703</v>
       </c>
       <c r="L35" t="n">
-        <v>611.5122152066355</v>
+        <v>611.5122152066356</v>
       </c>
       <c r="M35" t="n">
-        <v>697.199453563528</v>
+        <v>276.0855643015718</v>
       </c>
       <c r="N35" t="n">
-        <v>632.2446184397261</v>
+        <v>693.7010741209522</v>
       </c>
       <c r="O35" t="n">
-        <v>228.5979933663254</v>
+        <v>609.3981746290709</v>
       </c>
       <c r="P35" t="n">
         <v>482.0523108910201</v>
@@ -37327,7 +37327,7 @@
         <v>283.9994323806</v>
       </c>
       <c r="R35" t="n">
-        <v>21.14274768201491</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>361.8360068039334</v>
       </c>
       <c r="L36" t="n">
-        <v>177.7174618950766</v>
+        <v>548.5578071985358</v>
       </c>
       <c r="M36" t="n">
-        <v>692.6453514836103</v>
+        <v>226.9402877336105</v>
       </c>
       <c r="N36" t="n">
-        <v>247.5009086516006</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O36" t="n">
-        <v>567.7912051505108</v>
+        <v>344.1931549571141</v>
       </c>
       <c r="P36" t="n">
-        <v>144.1761519805593</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q36" t="n">
         <v>256.0317964517217</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.60407092018481</v>
+        <v>73.6040709201841</v>
       </c>
       <c r="K37" t="n">
         <v>200.235309255887</v>
@@ -37543,28 +37543,28 @@
         <v>219.1122326231252</v>
       </c>
       <c r="K38" t="n">
-        <v>450.3568864502702</v>
+        <v>351.041705359797</v>
       </c>
       <c r="L38" t="n">
-        <v>611.5122152066355</v>
+        <v>611.5122152066356</v>
       </c>
       <c r="M38" t="n">
-        <v>254.9428166195584</v>
+        <v>697.199453563528</v>
       </c>
       <c r="N38" t="n">
         <v>693.7010741209522</v>
       </c>
       <c r="O38" t="n">
-        <v>609.3981746290708</v>
+        <v>609.3981746290709</v>
       </c>
       <c r="P38" t="n">
-        <v>482.0523108910201</v>
+        <v>160.2536027195375</v>
       </c>
       <c r="Q38" t="n">
         <v>283.9994323806</v>
       </c>
       <c r="R38" t="n">
-        <v>21.14274768201491</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>361.8360068039334</v>
       </c>
       <c r="L39" t="n">
-        <v>357.7528948902473</v>
+        <v>548.5578071985358</v>
       </c>
       <c r="M39" t="n">
-        <v>692.6453514836103</v>
+        <v>226.9402877336105</v>
       </c>
       <c r="N39" t="n">
-        <v>247.5009086516006</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O39" t="n">
-        <v>597.8330598911892</v>
+        <v>344.1931549571141</v>
       </c>
       <c r="P39" t="n">
-        <v>144.1761519805593</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.95450871587258</v>
+        <v>256.0317964517217</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.60407092018436</v>
+        <v>73.60407092018481</v>
       </c>
       <c r="K40" t="n">
         <v>200.235309255887</v>
       </c>
       <c r="L40" t="n">
-        <v>289.7721199380318</v>
+        <v>289.7721199380319</v>
       </c>
       <c r="M40" t="n">
         <v>311.6353376179546</v>
@@ -37719,7 +37719,7 @@
         <v>225.6006244329184</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.72097247922761</v>
+        <v>96.72097247922763</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>157.6557769419011</v>
+        <v>219.1122326231252</v>
       </c>
       <c r="K41" t="n">
-        <v>450.3568864502702</v>
+        <v>450.3568864502703</v>
       </c>
       <c r="L41" t="n">
-        <v>611.5122152066355</v>
+        <v>193.8510006561851</v>
       </c>
       <c r="M41" t="n">
         <v>697.199453563528</v>
@@ -37792,7 +37792,7 @@
         <v>693.7010741209522</v>
       </c>
       <c r="O41" t="n">
-        <v>228.5979933663254</v>
+        <v>584.8027522355515</v>
       </c>
       <c r="P41" t="n">
         <v>482.0523108910201</v>
@@ -37801,7 +37801,7 @@
         <v>283.9994323806</v>
       </c>
       <c r="R41" t="n">
-        <v>21.14274768201491</v>
+        <v>21.14274768201494</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.78103289338006</v>
+        <v>136.8720682337889</v>
       </c>
       <c r="K42" t="n">
-        <v>97.3707697913548</v>
+        <v>361.8360068039334</v>
       </c>
       <c r="L42" t="n">
         <v>548.5578071985358</v>
       </c>
       <c r="M42" t="n">
-        <v>692.6453514836103</v>
+        <v>226.9402877336105</v>
       </c>
       <c r="N42" t="n">
-        <v>247.5009086516006</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O42" t="n">
-        <v>597.8330598911892</v>
+        <v>344.1931549571141</v>
       </c>
       <c r="P42" t="n">
-        <v>144.1761519805593</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q42" t="n">
-        <v>245.7058687605718</v>
+        <v>256.0317964517217</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.6040709201848</v>
+        <v>73.60407092018481</v>
       </c>
       <c r="K43" t="n">
         <v>200.235309255887</v>
       </c>
       <c r="L43" t="n">
-        <v>289.7721199380318</v>
+        <v>289.7721199380319</v>
       </c>
       <c r="M43" t="n">
         <v>311.6353376179546</v>
       </c>
       <c r="N43" t="n">
-        <v>311.6319569373183</v>
+        <v>311.6319569373188</v>
       </c>
       <c r="O43" t="n">
         <v>277.8192934819814</v>
       </c>
       <c r="P43" t="n">
-        <v>225.6006244329184</v>
+        <v>225.6006244329178</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.72097247922761</v>
+        <v>96.72097247922763</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>219.1122326231252</v>
       </c>
       <c r="K44" t="n">
-        <v>450.3568864502702</v>
+        <v>351.0417053597978</v>
       </c>
       <c r="L44" t="n">
-        <v>606.6025026746503</v>
+        <v>611.5122152066356</v>
       </c>
       <c r="M44" t="n">
         <v>697.199453563528</v>
       </c>
       <c r="N44" t="n">
-        <v>256.354149708968</v>
+        <v>693.7010741209522</v>
       </c>
       <c r="O44" t="n">
-        <v>609.3981746290708</v>
+        <v>609.3981746290709</v>
       </c>
       <c r="P44" t="n">
-        <v>482.0523108910201</v>
+        <v>160.2536027195375</v>
       </c>
       <c r="Q44" t="n">
         <v>283.9994323806</v>
       </c>
       <c r="R44" t="n">
-        <v>21.14274768201491</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>10.78103289338006</v>
+        <v>136.8720682337889</v>
       </c>
       <c r="K45" t="n">
         <v>361.8360068039334</v>
       </c>
       <c r="L45" t="n">
-        <v>421.0089376048697</v>
+        <v>548.5578071985358</v>
       </c>
       <c r="M45" t="n">
-        <v>226.9402877336104</v>
+        <v>226.9402877336105</v>
       </c>
       <c r="N45" t="n">
-        <v>247.5009086516006</v>
+        <v>247.5009086516007</v>
       </c>
       <c r="O45" t="n">
-        <v>597.8330598911892</v>
+        <v>344.1931549571141</v>
       </c>
       <c r="P45" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204965</v>
       </c>
       <c r="Q45" t="n">
         <v>256.0317964517217</v>
@@ -38175,10 +38175,10 @@
         <v>73.6040709201848</v>
       </c>
       <c r="K46" t="n">
-        <v>200.235309255887</v>
+        <v>200.2353092558866</v>
       </c>
       <c r="L46" t="n">
-        <v>289.7721199380318</v>
+        <v>289.7721199380319</v>
       </c>
       <c r="M46" t="n">
         <v>311.6353376179546</v>
@@ -38193,7 +38193,7 @@
         <v>225.6006244329184</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.72097247922727</v>
+        <v>96.72097247922761</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
